--- a/QUARTERLY CSR TOOLS/Emissions/input.xlsx
+++ b/QUARTERLY CSR TOOLS/Emissions/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsealho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geodis-my.sharepoint.com/personal/alexander_hoglund_geodis_com/Documents/Desktop/PYTHON TOOLS/QUARTERLY CSR TOOLS/Emissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887FE674-E4E7-4914-9470-B78CFA9E21BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_EE62B70EC04E90AE9D1D8755FABA282C7DB5D541" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{589CC06E-CBD3-47C5-8C85-634D76426F7B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="25">
   <si>
     <t>Leg Transport Mode</t>
   </si>
@@ -49,16 +49,13 @@
     <t>AIR</t>
   </si>
   <si>
-    <t>Sep</t>
+    <t>Jul</t>
   </si>
   <si>
     <t>Dec</t>
   </si>
   <si>
     <t>Feb</t>
-  </si>
-  <si>
-    <t>Jul</t>
   </si>
   <si>
     <t>May</t>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Oct</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
   <si>
     <t>Nov</t>
@@ -178,20 +178,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97CC71ED-E979-4A44-8041-11C8E44E7E78}" name="Table1" displayName="Table1" ref="A1:H146" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H146" xr:uid="{97CC71ED-E979-4A44-8041-11C8E44E7E78}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H146">
-    <sortCondition descending="1" ref="B1:B146"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88EF5A36-A02D-49EC-B13B-862BD3991D57}" name="Table1" displayName="Table1" ref="A1:H151" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H151" xr:uid="{88EF5A36-A02D-49EC-B13B-862BD3991D57}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9958FD2E-CA60-443F-90D6-C60683F95EA6}" name="Leg Transport Mode"/>
-    <tableColumn id="2" xr3:uid="{B5FC0FF7-EC8D-4C2F-8B96-2E367E9B6613}" name="Service Completion Month"/>
-    <tableColumn id="3" xr3:uid="{C1BE3FED-352C-4E49-9CA8-65CEFCFA25C0}" name="Service Completion Year" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{978EE135-F4DA-4908-AD5C-CADCB5D21B60}" name="TKm" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8FDEDB8E-10B3-49FE-B711-E154FC317F99}" name="CO2eq (tonnes)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6E7F8976-8A18-45D8-8395-55B0FDB62A02}" name="CO2eq After Reduction" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{D0232180-3848-4C64-AF97-2CBDB8197F17}" name="CO2eq/TKm (g)" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{DDF53DC6-1BAC-4E1D-9A7D-AD80A113D1B6}" name="CO2eq/TKm (g) After Reduction" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{41750313-C010-437C-A26A-AF697D2E08D4}" name="Leg Transport Mode"/>
+    <tableColumn id="2" xr3:uid="{111455B6-65E7-4F9C-887C-468598F663A0}" name="Service Completion Month"/>
+    <tableColumn id="3" xr3:uid="{A1126602-E3E8-41D7-9499-12EE0B07DC2F}" name="Service Completion Year" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{F4C338FC-60B0-4B52-9520-2DC0FE71870E}" name="TKm" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{66C5F0FC-E59D-40A3-A7A5-88496665C3D5}" name="CO2eq (tonnes)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FE90EA82-25DB-4A86-ABB8-50158D704F41}" name="CO2eq After Reduction" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{60D590D0-E719-4770-8BEA-622361E361AD}" name="CO2eq/TKm (g)" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5B35136D-28DC-45A6-AE22-B194D483E732}" name="CO2eq/TKm (g) After Reduction" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -484,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,25 +530,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>2022</v>
       </c>
       <c r="D2" s="2">
-        <v>162612890.01383579</v>
+        <v>170132455.93025801</v>
       </c>
       <c r="E2" s="2">
-        <v>112477.96983591589</v>
+        <v>121752.45276745511</v>
       </c>
       <c r="F2" s="2">
-        <v>112477.9698358109</v>
+        <v>121715.023827407</v>
       </c>
       <c r="G2" s="2">
-        <v>691.69159853407587</v>
+        <v>715.63331112650712</v>
       </c>
       <c r="H2" s="2">
-        <v>691.69159853343012</v>
+        <v>715.41331230356991</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -559,134 +556,134 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D3" s="2">
-        <v>149350847.2149772</v>
+        <v>169359940.2340003</v>
       </c>
       <c r="E3" s="2">
-        <v>94421.579315988114</v>
+        <v>120276.5824164943</v>
       </c>
       <c r="F3" s="2">
-        <v>94380.132866009269</v>
+        <v>120276.58241637961</v>
       </c>
       <c r="G3" s="2">
-        <v>632.21321523591143</v>
+        <v>710.18318883622192</v>
       </c>
       <c r="H3" s="2">
-        <v>631.93570459066427</v>
+        <v>710.18318883554468</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>2022</v>
       </c>
       <c r="D4" s="2">
-        <v>4731324.3722613063</v>
+        <v>198297923.79671359</v>
       </c>
       <c r="E4" s="2">
-        <v>202.7068105105281</v>
+        <v>140353.44025506981</v>
       </c>
       <c r="F4" s="2">
-        <v>202.7068105105281</v>
+        <v>140353.44025503419</v>
       </c>
       <c r="G4" s="2">
-        <v>42.843566528423352</v>
+        <v>707.79077041146456</v>
       </c>
       <c r="H4" s="2">
-        <v>42.843566528423352</v>
+        <v>707.79077041128517</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D5" s="2">
-        <v>3370422.241290343</v>
+        <v>163007693.85274181</v>
       </c>
       <c r="E5" s="2">
-        <v>121.1971370285443</v>
+        <v>114449.0597860859</v>
       </c>
       <c r="F5" s="2">
-        <v>121.1971370285443</v>
+        <v>114449.05978620661</v>
       </c>
       <c r="G5" s="2">
-        <v>35.959036687980323</v>
+        <v>702.10833047841948</v>
       </c>
       <c r="H5" s="2">
-        <v>35.959036687980323</v>
+        <v>702.1083304791598</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>2022</v>
       </c>
       <c r="D6" s="2">
-        <v>55347970.649452813</v>
+        <v>175480513.37831309</v>
       </c>
       <c r="E6" s="2">
-        <v>1530.4742033065879</v>
+        <v>122821.3775560745</v>
       </c>
       <c r="F6" s="2">
-        <v>1530.4742033065879</v>
+        <v>122812.8976360731</v>
       </c>
       <c r="G6" s="2">
-        <v>27.651857608291909</v>
+        <v>699.91462408870211</v>
       </c>
       <c r="H6" s="2">
-        <v>27.651857608291909</v>
+        <v>699.86630009056637</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D7" s="2">
-        <v>48513309.139894351</v>
+        <v>153467996.55617771</v>
       </c>
       <c r="E7" s="2">
-        <v>1228.8575548974979</v>
+        <v>107304.1358372336</v>
       </c>
       <c r="F7" s="2">
-        <v>1228.8575548974979</v>
+        <v>107304.1358370792</v>
       </c>
       <c r="G7" s="2">
-        <v>25.330318147416609</v>
+        <v>699.19552118447291</v>
       </c>
       <c r="H7" s="2">
-        <v>25.330318147416609</v>
+        <v>699.19552118346712</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -695,97 +692,97 @@
         <v>2022</v>
       </c>
       <c r="D8" s="2">
-        <v>210861191.7788437</v>
+        <v>169407936.17192271</v>
       </c>
       <c r="E8" s="2">
-        <v>27428.986025753511</v>
+        <v>118250.4624203101</v>
       </c>
       <c r="F8" s="2">
-        <v>27428.986025753511</v>
+        <v>118250.4624205275</v>
       </c>
       <c r="G8" s="2">
-        <v>130.0807692224451</v>
+        <v>698.02197637485119</v>
       </c>
       <c r="H8" s="2">
-        <v>130.0807692224451</v>
+        <v>698.0219763761346</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D9" s="2">
-        <v>151307519.6530444</v>
+        <v>155226195.67817709</v>
       </c>
       <c r="E9" s="2">
-        <v>19629.720738223081</v>
+        <v>108332.2234294017</v>
       </c>
       <c r="F9" s="2">
-        <v>19629.720738223081</v>
+        <v>108332.2234296958</v>
       </c>
       <c r="G9" s="2">
-        <v>129.73394040980239</v>
+        <v>697.89910753209222</v>
       </c>
       <c r="H9" s="2">
-        <v>129.73394040980239</v>
+        <v>697.89910753398681</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D10" s="2">
-        <v>4378216142.9437656</v>
+        <v>161368033.27989259</v>
       </c>
       <c r="E10" s="2">
-        <v>41098.492091269807</v>
+        <v>111738.26792140611</v>
       </c>
       <c r="F10" s="2">
-        <v>40667.841477189009</v>
+        <v>111738.2679214572</v>
       </c>
       <c r="G10" s="2">
-        <v>9.3870404633875744</v>
+        <v>692.44363738136576</v>
       </c>
       <c r="H10" s="2">
-        <v>9.2886783451137056</v>
+        <v>692.44363738168272</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>2022</v>
       </c>
       <c r="D11" s="2">
-        <v>5626782854.0181923</v>
+        <v>162612890.01383641</v>
       </c>
       <c r="E11" s="2">
-        <v>47751.861289007211</v>
+        <v>112477.9698359165</v>
       </c>
       <c r="F11" s="2">
-        <v>47425.993150191978</v>
+        <v>112477.969835811</v>
       </c>
       <c r="G11" s="2">
-        <v>8.4865299635486551</v>
+        <v>691.69159853407689</v>
       </c>
       <c r="H11" s="2">
-        <v>8.428616205852725</v>
+        <v>691.69159853342853</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -793,25 +790,25 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>2022</v>
       </c>
       <c r="D12" s="2">
-        <v>161368033.27989241</v>
+        <v>158185314.8079361</v>
       </c>
       <c r="E12" s="2">
-        <v>111738.26792140619</v>
+        <v>109295.0631576523</v>
       </c>
       <c r="F12" s="2">
-        <v>111738.26792145769</v>
+        <v>109295.06315789231</v>
       </c>
       <c r="G12" s="2">
-        <v>692.44363738136758</v>
+        <v>690.93052847766023</v>
       </c>
       <c r="H12" s="2">
-        <v>692.44363738168636</v>
+        <v>690.93052847917704</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -819,233 +816,233 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D13" s="2">
-        <v>150322724.72178489</v>
+        <v>143568702.50624889</v>
       </c>
       <c r="E13" s="2">
-        <v>95940.194041416893</v>
+        <v>99076.605114341422</v>
       </c>
       <c r="F13" s="2">
-        <v>95882.896361427876</v>
+        <v>99073.617884384745</v>
       </c>
       <c r="G13" s="2">
-        <v>638.22814693507985</v>
+        <v>690.09891003249186</v>
       </c>
       <c r="H13" s="2">
-        <v>637.84698247644542</v>
+        <v>690.07810306060651</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D14" s="2">
-        <v>3932563.744763487</v>
+        <v>137257908.71946841</v>
       </c>
       <c r="E14" s="2">
-        <v>193.37029334896849</v>
+        <v>88861.412002521305</v>
       </c>
       <c r="F14" s="2">
-        <v>193.37029334896849</v>
+        <v>88753.241713538635</v>
       </c>
       <c r="G14" s="2">
-        <v>49.171559801530492</v>
+        <v>647.40467657961187</v>
       </c>
       <c r="H14" s="2">
-        <v>49.171559801530492</v>
+        <v>646.61659602387681</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D15" s="2">
-        <v>3171462.8377023851</v>
+        <v>110248400.37864269</v>
       </c>
       <c r="E15" s="2">
-        <v>138.63261177954101</v>
+        <v>71254.354845603506</v>
       </c>
       <c r="F15" s="2">
-        <v>138.63261177954101</v>
+        <v>71251.40038763576</v>
       </c>
       <c r="G15" s="2">
-        <v>43.712513396491673</v>
+        <v>646.30738043258634</v>
       </c>
       <c r="H15" s="2">
-        <v>43.712513396491673</v>
+        <v>646.28058223907431</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D16" s="2">
-        <v>48401407.84292978</v>
+        <v>163655110.18707579</v>
       </c>
       <c r="E16" s="2">
-        <v>1351.2138101527789</v>
+        <v>105338.2288403445</v>
       </c>
       <c r="F16" s="2">
-        <v>1351.2138101527789</v>
+        <v>105330.7899085042</v>
       </c>
       <c r="G16" s="2">
-        <v>27.916828670308131</v>
+        <v>643.65988156392586</v>
       </c>
       <c r="H16" s="2">
-        <v>27.916828670308131</v>
+        <v>643.61442663232128</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>2023</v>
       </c>
       <c r="D17" s="2">
-        <v>47074278.932266988</v>
+        <v>127928763.28317849</v>
       </c>
       <c r="E17" s="2">
-        <v>1285.008459714169</v>
+        <v>82323.323199521299</v>
       </c>
       <c r="F17" s="2">
-        <v>1285.008459714169</v>
+        <v>82323.323199564926</v>
       </c>
       <c r="G17" s="2">
-        <v>27.297464536060321</v>
+        <v>643.50909902328522</v>
       </c>
       <c r="H17" s="2">
-        <v>27.297464536060321</v>
+        <v>643.50909902362616</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D18" s="2">
-        <v>269266653.30945742</v>
+        <v>163734555.937801</v>
       </c>
       <c r="E18" s="2">
-        <v>36573.730814321389</v>
+        <v>105225.30825981341</v>
       </c>
       <c r="F18" s="2">
-        <v>36573.730814321389</v>
+        <v>105176.6088809379</v>
       </c>
       <c r="G18" s="2">
-        <v>135.82718232951279</v>
+        <v>642.65791455644865</v>
       </c>
       <c r="H18" s="2">
-        <v>135.82718232951279</v>
+        <v>642.36048571745607</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
         <v>2023</v>
       </c>
       <c r="D19" s="2">
-        <v>157489264.1682587</v>
+        <v>124494407.92582519</v>
       </c>
       <c r="E19" s="2">
-        <v>20533.723803276931</v>
+        <v>79805.847030655248</v>
       </c>
       <c r="F19" s="2">
-        <v>20533.723803276931</v>
+        <v>79796.517970428642</v>
       </c>
       <c r="G19" s="2">
-        <v>130.38173688677011</v>
+        <v>641.03961262424116</v>
       </c>
       <c r="H19" s="2">
-        <v>130.38173688677011</v>
+        <v>640.96467704776001</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D20" s="2">
-        <v>4434404302.4607487</v>
+        <v>164312400.59752369</v>
       </c>
       <c r="E20" s="2">
-        <v>40917.29138913245</v>
+        <v>104904.0586196019</v>
       </c>
       <c r="F20" s="2">
-        <v>40552.456349022927</v>
+        <v>104748.7621596317</v>
       </c>
       <c r="G20" s="2">
-        <v>9.227235181606364</v>
+        <v>638.44273614235601</v>
       </c>
       <c r="H20" s="2">
-        <v>9.1449614385678526</v>
+        <v>637.49760686784305</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D21" s="2">
-        <v>5583376155.8442001</v>
+        <v>150322724.72178489</v>
       </c>
       <c r="E21" s="2">
-        <v>45818.276336731607</v>
+        <v>95940.194041416908</v>
       </c>
       <c r="F21" s="2">
-        <v>45464.919908909018</v>
+        <v>95882.896361427585</v>
       </c>
       <c r="G21" s="2">
-        <v>8.2061955092839227</v>
+        <v>638.22814693508008</v>
       </c>
       <c r="H21" s="2">
-        <v>8.1429082762622453</v>
+        <v>637.84698247644383</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1053,25 +1050,25 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D22" s="2">
-        <v>158185314.80793709</v>
+        <v>145925031.1325478</v>
       </c>
       <c r="E22" s="2">
-        <v>109295.06315765181</v>
+        <v>92750.276029171408</v>
       </c>
       <c r="F22" s="2">
-        <v>109295.0631578927</v>
+        <v>92733.524749213131</v>
       </c>
       <c r="G22" s="2">
-        <v>690.93052847765239</v>
+        <v>635.60223567760409</v>
       </c>
       <c r="H22" s="2">
-        <v>690.93052847917568</v>
+        <v>635.48744193846107</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1079,108 +1076,108 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
         <v>2023</v>
       </c>
       <c r="D23" s="2">
-        <v>150606910.3833929</v>
+        <v>139673216.36471149</v>
       </c>
       <c r="E23" s="2">
-        <v>94703.764428241528</v>
+        <v>88523.034831087076</v>
       </c>
       <c r="F23" s="2">
-        <v>94688.868728436457</v>
+        <v>88502.62532109383</v>
       </c>
       <c r="G23" s="2">
-        <v>628.81420372517186</v>
+        <v>633.78675693941057</v>
       </c>
       <c r="H23" s="2">
-        <v>628.71529923422156</v>
+        <v>633.64063364874357</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D24" s="2">
-        <v>1171031.6110209869</v>
+        <v>149350847.21497741</v>
       </c>
       <c r="E24" s="2">
-        <v>58.967847126238013</v>
+        <v>94421.57931598743</v>
       </c>
       <c r="F24" s="2">
-        <v>58.967847126238013</v>
+        <v>94380.132866008877</v>
       </c>
       <c r="G24" s="2">
-        <v>50.355469973031497</v>
+        <v>632.21321523590586</v>
       </c>
       <c r="H24" s="2">
-        <v>50.355469973031497</v>
+        <v>631.93570459066075</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="2">
-        <v>4692826.4667512216</v>
+        <v>147173391.88029999</v>
       </c>
       <c r="E25" s="2">
-        <v>197.87862961765259</v>
+        <v>93019.721471926896</v>
       </c>
       <c r="F25" s="2">
-        <v>197.87862961765259</v>
+        <v>92902.333822459885</v>
       </c>
       <c r="G25" s="2">
-        <v>42.166193661672153</v>
+        <v>632.04170457376063</v>
       </c>
       <c r="H25" s="2">
-        <v>42.166193661672153</v>
+        <v>631.24408995085048</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D26" s="2">
-        <v>56003796.08456441</v>
+        <v>146978578.58478901</v>
       </c>
       <c r="E26" s="2">
-        <v>1390.8012438399819</v>
+        <v>92772.002393941657</v>
       </c>
       <c r="F26" s="2">
-        <v>1390.8012438399819</v>
+        <v>92664.453854288018</v>
       </c>
       <c r="G26" s="2">
-        <v>24.834053065615489</v>
+        <v>631.19403716660213</v>
       </c>
       <c r="H26" s="2">
-        <v>24.834053065615489</v>
+        <v>630.46230781740599</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1189,180 +1186,180 @@
         <v>2023</v>
       </c>
       <c r="D27" s="2">
-        <v>54253065.949148588</v>
+        <v>150607094.05765069</v>
       </c>
       <c r="E27" s="2">
-        <v>1177.9143793870271</v>
+        <v>94703.894059197046</v>
       </c>
       <c r="F27" s="2">
-        <v>1177.9143793870271</v>
+        <v>94688.998359391597</v>
       </c>
       <c r="G27" s="2">
-        <v>21.711480425660859</v>
+        <v>628.81429757183616</v>
       </c>
       <c r="H27" s="2">
-        <v>21.711480425660859</v>
+        <v>628.71539320150305</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D28" s="2">
-        <v>232356454.2751475</v>
+        <v>147910404.4320561</v>
       </c>
       <c r="E28" s="2">
-        <v>31354.290424057461</v>
+        <v>92837.786534432467</v>
       </c>
       <c r="F28" s="2">
-        <v>31354.290424057461</v>
+        <v>92837.786534895364</v>
       </c>
       <c r="G28" s="2">
-        <v>134.94047549429769</v>
+        <v>627.66231280963268</v>
       </c>
       <c r="H28" s="2">
-        <v>134.94047549429769</v>
+        <v>627.66231281276237</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1">
         <v>2023</v>
       </c>
       <c r="D29" s="2">
-        <v>164546086.80402151</v>
+        <v>130354274.09467889</v>
       </c>
       <c r="E29" s="2">
-        <v>20936.845477106632</v>
+        <v>81759.618239305768</v>
       </c>
       <c r="F29" s="2">
-        <v>20936.845477106632</v>
+        <v>81759.618239448813</v>
       </c>
       <c r="G29" s="2">
-        <v>127.2400084606262</v>
+        <v>627.21087441998338</v>
       </c>
       <c r="H29" s="2">
-        <v>127.2400084606262</v>
+        <v>627.21087442108069</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1">
         <v>2023</v>
       </c>
       <c r="D30" s="2">
-        <v>3918595729.012023</v>
+        <v>141734433.47418889</v>
       </c>
       <c r="E30" s="2">
-        <v>37535.409685442843</v>
+        <v>88857.159567695198</v>
       </c>
       <c r="F30" s="2">
-        <v>37236.93571541601</v>
+        <v>88848.956497739782</v>
       </c>
       <c r="G30" s="2">
-        <v>9.5787910468902755</v>
+        <v>626.92711566012588</v>
       </c>
       <c r="H30" s="2">
-        <v>9.5026224419441139</v>
+        <v>626.86923932228501</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D31" s="2">
-        <v>5259915112.1689053</v>
+        <v>132632795.14342409</v>
       </c>
       <c r="E31" s="2">
-        <v>43145.302282105658</v>
+        <v>82514.690796915194</v>
       </c>
       <c r="F31" s="2">
-        <v>42801.389043351002</v>
+        <v>82514.690797406729</v>
       </c>
       <c r="G31" s="2">
-        <v>8.2026613285617955</v>
+        <v>622.1288687137062</v>
       </c>
       <c r="H31" s="2">
-        <v>8.1372775283633842</v>
+        <v>622.12886871741227</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
         <v>2022</v>
       </c>
       <c r="D32" s="2">
-        <v>169359940.23400071</v>
+        <v>121771.278932474</v>
       </c>
       <c r="E32" s="2">
-        <v>120276.58241649449</v>
+        <v>8.7570234864099987</v>
       </c>
       <c r="F32" s="2">
-        <v>120276.5824163802</v>
+        <v>8.7570234864099987</v>
       </c>
       <c r="G32" s="2">
-        <v>710.18318883622101</v>
+        <v>71.913702173285415</v>
       </c>
       <c r="H32" s="2">
-        <v>710.18318883554628</v>
+        <v>71.913702173285415</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D33" s="2">
-        <v>166429849.8476963</v>
+        <v>367671.24317228462</v>
       </c>
       <c r="E33" s="2">
-        <v>107233.28862115509</v>
+        <v>25.232048253630001</v>
       </c>
       <c r="F33" s="2">
-        <v>107226.3050993185</v>
+        <v>25.232048253630001</v>
       </c>
       <c r="G33" s="2">
-        <v>644.31523984000887</v>
+        <v>68.626656890342346</v>
       </c>
       <c r="H33" s="2">
-        <v>644.27327908691666</v>
+        <v>68.626656890342346</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -1371,19 +1368,19 @@
         <v>2023</v>
       </c>
       <c r="D34" s="2">
-        <v>130354274.09467921</v>
+        <v>842426.46536226606</v>
       </c>
       <c r="E34" s="2">
-        <v>81759.618239306408</v>
+        <v>48.549191986461267</v>
       </c>
       <c r="F34" s="2">
-        <v>81759.618239449366</v>
+        <v>48.549191986461267</v>
       </c>
       <c r="G34" s="2">
-        <v>627.21087441998702</v>
+        <v>57.630183740231622</v>
       </c>
       <c r="H34" s="2">
-        <v>627.21087442108364</v>
+        <v>57.630183740231622</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1391,25 +1388,25 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D35" s="2">
-        <v>1742523.894763913</v>
+        <v>2542475.678992243</v>
       </c>
       <c r="E35" s="2">
-        <v>82.205529710255007</v>
+        <v>136.12635137078149</v>
       </c>
       <c r="F35" s="2">
-        <v>82.205529710255007</v>
+        <v>136.12635137078149</v>
       </c>
       <c r="G35" s="2">
-        <v>47.176127660156247</v>
+        <v>53.540866681854638</v>
       </c>
       <c r="H35" s="2">
-        <v>47.176127660156247</v>
+        <v>53.540866681854638</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1417,25 +1414,25 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1">
         <v>2023</v>
       </c>
       <c r="D36" s="2">
-        <v>4234194.1129534468</v>
+        <v>1924043.3283526539</v>
       </c>
       <c r="E36" s="2">
-        <v>194.0035456564629</v>
+        <v>99.488626934944079</v>
       </c>
       <c r="F36" s="2">
-        <v>194.0035456564629</v>
+        <v>99.488626934944079</v>
       </c>
       <c r="G36" s="2">
-        <v>45.818292804044603</v>
+        <v>51.708101095688541</v>
       </c>
       <c r="H36" s="2">
-        <v>45.818292804044603</v>
+        <v>51.708101095688541</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1443,337 +1440,337 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D37" s="2">
-        <v>3475259.293533972</v>
+        <v>1821786.3023248969</v>
       </c>
       <c r="E37" s="2">
-        <v>119.91085790714649</v>
+        <v>91.835786150974968</v>
       </c>
       <c r="F37" s="2">
-        <v>119.91085790714649</v>
+        <v>91.835786150974968</v>
       </c>
       <c r="G37" s="2">
-        <v>34.50414710932543</v>
+        <v>50.409746759967128</v>
       </c>
       <c r="H37" s="2">
-        <v>34.50414710932543</v>
+        <v>50.409746759967128</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D38" s="2">
-        <v>42438434.143425003</v>
+        <v>1171031.6110209869</v>
       </c>
       <c r="E38" s="2">
-        <v>1490.337662140824</v>
+        <v>58.967847126237992</v>
       </c>
       <c r="F38" s="2">
-        <v>1490.337662140824</v>
+        <v>58.967847126237992</v>
       </c>
       <c r="G38" s="2">
-        <v>35.117640229233622</v>
+        <v>50.355469973031482</v>
       </c>
       <c r="H38" s="2">
-        <v>35.117640229233622</v>
+        <v>50.355469973031482</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D39" s="2">
-        <v>128786084.266791</v>
+        <v>3932563.744763487</v>
       </c>
       <c r="E39" s="2">
-        <v>3583.0584919783778</v>
+        <v>193.3702933489684</v>
       </c>
       <c r="F39" s="2">
-        <v>3583.0584919783778</v>
+        <v>193.3702933489684</v>
       </c>
       <c r="G39" s="2">
-        <v>27.821783016212969</v>
+        <v>49.171559801530456</v>
       </c>
       <c r="H39" s="2">
-        <v>27.821783016212969</v>
+        <v>49.171559801530456</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D40" s="2">
-        <v>68981723.542513847</v>
+        <v>338281.5389743406</v>
       </c>
       <c r="E40" s="2">
-        <v>1458.0886649072811</v>
+        <v>16.504432646840002</v>
       </c>
       <c r="F40" s="2">
-        <v>1458.0886649072811</v>
+        <v>16.504432646840002</v>
       </c>
       <c r="G40" s="2">
-        <v>21.137318553785519</v>
+        <v>48.789043282943958</v>
       </c>
       <c r="H40" s="2">
-        <v>21.137318553785519</v>
+        <v>48.789043282943958</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1">
         <v>2023</v>
       </c>
       <c r="D41" s="2">
-        <v>160909633.02613881</v>
+        <v>4499827.6141594639</v>
       </c>
       <c r="E41" s="2">
-        <v>22446.072083634139</v>
+        <v>216.31878324228859</v>
       </c>
       <c r="F41" s="2">
-        <v>22446.072083634139</v>
+        <v>216.31878324228859</v>
       </c>
       <c r="G41" s="2">
-        <v>139.49489326091441</v>
+        <v>48.072682287118099</v>
       </c>
       <c r="H41" s="2">
-        <v>139.49489326091441</v>
+        <v>48.072682287118099</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C42" s="1">
         <v>2022</v>
       </c>
       <c r="D42" s="2">
-        <v>263804218.86335501</v>
+        <v>1047114.8301536849</v>
       </c>
       <c r="E42" s="2">
-        <v>33368.528173760838</v>
+        <v>50.158896686665003</v>
       </c>
       <c r="F42" s="2">
-        <v>33368.528173760838</v>
+        <v>50.158896686665003</v>
       </c>
       <c r="G42" s="2">
-        <v>126.4897442411451</v>
+        <v>47.902001998484891</v>
       </c>
       <c r="H42" s="2">
-        <v>126.4897442411451</v>
+        <v>47.902001998484891</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D43" s="2">
-        <v>196515290.88264191</v>
+        <v>1742523.8947639121</v>
       </c>
       <c r="E43" s="2">
-        <v>23040.44287667039</v>
+        <v>82.205529710254993</v>
       </c>
       <c r="F43" s="2">
-        <v>23040.44287667039</v>
+        <v>82.205529710254993</v>
       </c>
       <c r="G43" s="2">
-        <v>117.24503865925659</v>
+        <v>47.176127660156247</v>
       </c>
       <c r="H43" s="2">
-        <v>117.24503865925659</v>
+        <v>47.176127660156247</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D44" s="2">
-        <v>4778251226.0082626</v>
+        <v>4234194.1129534468</v>
       </c>
       <c r="E44" s="2">
-        <v>45210.431202213367</v>
+        <v>194.00354565646299</v>
       </c>
       <c r="F44" s="2">
-        <v>44922.189017457997</v>
+        <v>194.00354565646299</v>
       </c>
       <c r="G44" s="2">
-        <v>9.4617107941354597</v>
+        <v>45.81829280404461</v>
       </c>
       <c r="H44" s="2">
-        <v>9.4013870122492218</v>
+        <v>45.81829280404461</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D45" s="2">
-        <v>4571686170.7533617</v>
+        <v>1812040.42320313</v>
       </c>
       <c r="E45" s="2">
-        <v>42824.526591539267</v>
+        <v>82.79160437214999</v>
       </c>
       <c r="F45" s="2">
-        <v>42455.689539506973</v>
+        <v>82.79160437214999</v>
       </c>
       <c r="G45" s="2">
-        <v>9.3673373438234666</v>
+        <v>45.689711615704432</v>
       </c>
       <c r="H45" s="2">
-        <v>9.2866587849162787</v>
+        <v>45.689711615704432</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" s="1">
         <v>2022</v>
       </c>
       <c r="D46" s="2">
-        <v>7007627857.1000938</v>
+        <v>2373038.793759197</v>
       </c>
       <c r="E46" s="2">
-        <v>58580.642946612483</v>
+        <v>107.24413766764501</v>
       </c>
       <c r="F46" s="2">
-        <v>58329.457133697957</v>
+        <v>107.24413766764501</v>
       </c>
       <c r="G46" s="2">
-        <v>8.3595539234091714</v>
+        <v>45.192745247015779</v>
       </c>
       <c r="H46" s="2">
-        <v>8.3237092955212866</v>
+        <v>45.192745247015779</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1">
         <v>2022</v>
       </c>
       <c r="D47" s="2">
-        <v>198297923.7967141</v>
+        <v>3171462.8377023851</v>
       </c>
       <c r="E47" s="2">
-        <v>140353.44025506941</v>
+        <v>138.63261177954101</v>
       </c>
       <c r="F47" s="2">
-        <v>140353.4402550339</v>
+        <v>138.63261177954101</v>
       </c>
       <c r="G47" s="2">
-        <v>707.7907704114607</v>
+        <v>43.71251339649168</v>
       </c>
       <c r="H47" s="2">
-        <v>707.79077041128164</v>
+        <v>43.71251339649168</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D48" s="2">
-        <v>164324077.34394571</v>
+        <v>4617273.6624474674</v>
       </c>
       <c r="E48" s="2">
-        <v>104930.2528452995</v>
+        <v>199.34035830626181</v>
       </c>
       <c r="F48" s="2">
-        <v>104774.9563853303</v>
+        <v>199.34035830626181</v>
       </c>
       <c r="G48" s="2">
-        <v>638.55677476691778</v>
+        <v>43.172740642926932</v>
       </c>
       <c r="H48" s="2">
-        <v>637.61171265259236</v>
+        <v>43.172740642926932</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D49" s="2">
-        <v>147910404.43205631</v>
+        <v>4731324.3722613053</v>
       </c>
       <c r="E49" s="2">
-        <v>92837.786534432322</v>
+        <v>202.7068105105281</v>
       </c>
       <c r="F49" s="2">
-        <v>92837.786534895276</v>
+        <v>202.7068105105281</v>
       </c>
       <c r="G49" s="2">
-        <v>627.66231280963063</v>
+        <v>42.843566528423352</v>
       </c>
       <c r="H49" s="2">
-        <v>627.66231281276066</v>
+        <v>42.843566528423352</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1781,25 +1778,25 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D50" s="2">
-        <v>367671.24317228462</v>
+        <v>4692826.4667512216</v>
       </c>
       <c r="E50" s="2">
-        <v>25.232048253630001</v>
+        <v>197.87862961765259</v>
       </c>
       <c r="F50" s="2">
-        <v>25.232048253630001</v>
+        <v>197.87862961765259</v>
       </c>
       <c r="G50" s="2">
-        <v>68.626656890342346</v>
+        <v>42.166193661672118</v>
       </c>
       <c r="H50" s="2">
-        <v>68.626656890342346</v>
+        <v>42.166193661672118</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1807,25 +1804,25 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D51" s="2">
-        <v>842426.4653622664</v>
+        <v>8615868.936302891</v>
       </c>
       <c r="E51" s="2">
-        <v>48.549191986461267</v>
+        <v>362.79182878253499</v>
       </c>
       <c r="F51" s="2">
-        <v>48.549191986461267</v>
+        <v>362.79182878253499</v>
       </c>
       <c r="G51" s="2">
-        <v>57.630183740231608</v>
+        <v>42.107398738845099</v>
       </c>
       <c r="H51" s="2">
-        <v>57.630183740231608</v>
+        <v>42.107398738845099</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1833,160 +1830,160 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="1">
         <v>2024</v>
       </c>
       <c r="D52" s="2">
-        <v>4289536.232819357</v>
+        <v>4289614.1525197811</v>
       </c>
       <c r="E52" s="2">
-        <v>174.9794762249056</v>
+        <v>174.9817151923597</v>
       </c>
       <c r="F52" s="2">
-        <v>174.9794762249056</v>
+        <v>174.9817151923597</v>
       </c>
       <c r="G52" s="2">
-        <v>40.792166501854659</v>
+        <v>40.79194747377754</v>
       </c>
       <c r="H52" s="2">
-        <v>40.792166501854659</v>
+        <v>40.79194747377754</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C53" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D53" s="2">
-        <v>48614223.671441197</v>
+        <v>3450815.195322413</v>
       </c>
       <c r="E53" s="2">
-        <v>1640.2690175746559</v>
+        <v>140.352060854748</v>
       </c>
       <c r="F53" s="2">
-        <v>1640.2690175746559</v>
+        <v>140.352060854748</v>
       </c>
       <c r="G53" s="2">
-        <v>33.740516534016862</v>
+        <v>40.672146409055912</v>
       </c>
       <c r="H53" s="2">
-        <v>33.740516534016862</v>
+        <v>40.672146409055912</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1">
         <v>2022</v>
       </c>
       <c r="D54" s="2">
-        <v>168636661.5560675</v>
+        <v>7062258.6795196561</v>
       </c>
       <c r="E54" s="2">
-        <v>4795.8013073616676</v>
+        <v>287.07636477997698</v>
       </c>
       <c r="F54" s="2">
-        <v>4795.8013073616676</v>
+        <v>287.07636477997698</v>
       </c>
       <c r="G54" s="2">
-        <v>28.438663711136051</v>
+        <v>40.649369813157669</v>
       </c>
       <c r="H54" s="2">
-        <v>28.438663711136051</v>
+        <v>40.649369813157669</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D55" s="2">
-        <v>97016251.8021155</v>
+        <v>4108947.5888532219</v>
       </c>
       <c r="E55" s="2">
-        <v>2139.8235574307032</v>
+        <v>166.3321821026984</v>
       </c>
       <c r="F55" s="2">
-        <v>2139.8235574307032</v>
+        <v>166.3321821026984</v>
       </c>
       <c r="G55" s="2">
-        <v>22.056341259146059</v>
+        <v>40.480482777128962</v>
       </c>
       <c r="H55" s="2">
-        <v>22.056341259146059</v>
+        <v>40.480482777128962</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C56" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D56" s="2">
-        <v>163372504.89344209</v>
+        <v>3925893.2640922889</v>
       </c>
       <c r="E56" s="2">
-        <v>22676.12489494458</v>
+        <v>157.35665807411891</v>
       </c>
       <c r="F56" s="2">
-        <v>22676.12489494458</v>
+        <v>157.35665807411891</v>
       </c>
       <c r="G56" s="2">
-        <v>138.80012986110989</v>
+        <v>40.081746366709133</v>
       </c>
       <c r="H56" s="2">
-        <v>138.80012986110989</v>
+        <v>40.081746366709133</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D57" s="2">
-        <v>317445237.55933547</v>
+        <v>3988884.6944208089</v>
       </c>
       <c r="E57" s="2">
-        <v>39722.347307316762</v>
+        <v>155.45299542580659</v>
       </c>
       <c r="F57" s="2">
-        <v>39722.347307316762</v>
+        <v>155.45299542580659</v>
       </c>
       <c r="G57" s="2">
-        <v>125.1313379678346</v>
+        <v>38.971544011597089</v>
       </c>
       <c r="H57" s="2">
-        <v>125.1313379678346</v>
+        <v>38.971544011597089</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -1995,201 +1992,201 @@
         <v>2024</v>
       </c>
       <c r="D58" s="2">
-        <v>201481528.3190814</v>
+        <v>4736616.0595012363</v>
       </c>
       <c r="E58" s="2">
-        <v>23242.354182540959</v>
+        <v>172.6478930658659</v>
       </c>
       <c r="F58" s="2">
-        <v>23242.354182540959</v>
+        <v>172.6478930658659</v>
       </c>
       <c r="G58" s="2">
-        <v>115.3572457805293</v>
+        <v>36.449627940510261</v>
       </c>
       <c r="H58" s="2">
-        <v>115.3572457805293</v>
+        <v>36.449627940510261</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D59" s="2">
-        <v>9026797741.4573421</v>
+        <v>3370422.241290343</v>
       </c>
       <c r="E59" s="2">
-        <v>89298.533560824479</v>
+        <v>121.1971370285443</v>
       </c>
       <c r="F59" s="2">
-        <v>89097.484261025122</v>
+        <v>121.1971370285443</v>
       </c>
       <c r="G59" s="2">
-        <v>9.8926037913426832</v>
+        <v>35.959036687980323</v>
       </c>
       <c r="H59" s="2">
-        <v>9.8703312972027071</v>
+        <v>35.959036687980323</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D60" s="2">
-        <v>4272884522.1227112</v>
+        <v>3520498.9108876758</v>
       </c>
       <c r="E60" s="2">
-        <v>40570.508544847238</v>
+        <v>121.3185658135456</v>
       </c>
       <c r="F60" s="2">
-        <v>40291.184027888943</v>
+        <v>121.3185658135456</v>
       </c>
       <c r="G60" s="2">
-        <v>9.4948759637183819</v>
+        <v>34.460617339874617</v>
       </c>
       <c r="H60" s="2">
-        <v>9.4295045464680207</v>
+        <v>34.460617339874617</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1">
         <v>2024</v>
       </c>
       <c r="D61" s="2">
-        <v>4900773496.2661095</v>
+        <v>6942121.6210295185</v>
       </c>
       <c r="E61" s="2">
-        <v>46035.645864296239</v>
+        <v>238.76026569381389</v>
       </c>
       <c r="F61" s="2">
-        <v>45755.271709523979</v>
+        <v>238.76026569381389</v>
       </c>
       <c r="G61" s="2">
-        <v>9.3935469369010249</v>
+        <v>34.392982250634446</v>
       </c>
       <c r="H61" s="2">
-        <v>9.3363367526340149</v>
+        <v>34.392982250634446</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C62" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D62" s="2">
-        <v>163007693.85274151</v>
+        <v>43611665.764662437</v>
       </c>
       <c r="E62" s="2">
-        <v>114449.0597860859</v>
+        <v>1752.4361317051971</v>
       </c>
       <c r="F62" s="2">
-        <v>114449.0597862064</v>
+        <v>1752.4361317051971</v>
       </c>
       <c r="G62" s="2">
-        <v>702.10833047842107</v>
+        <v>40.182737828949357</v>
       </c>
       <c r="H62" s="2">
-        <v>702.1083304791606</v>
+        <v>40.182737828949357</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1">
         <v>2023</v>
       </c>
       <c r="D63" s="2">
-        <v>141739552.8536132</v>
+        <v>42438434.143424973</v>
       </c>
       <c r="E63" s="2">
-        <v>88860.943996335292</v>
+        <v>1490.3376621408231</v>
       </c>
       <c r="F63" s="2">
-        <v>88852.740926380022</v>
+        <v>1490.3376621408231</v>
       </c>
       <c r="G63" s="2">
-        <v>626.93117204983514</v>
+        <v>35.11764022923365</v>
       </c>
       <c r="H63" s="2">
-        <v>626.87329780238531</v>
+        <v>35.11764022923365</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C64" s="1">
         <v>2023</v>
       </c>
       <c r="D64" s="2">
-        <v>4499827.6141594639</v>
+        <v>40681682.71564918</v>
       </c>
       <c r="E64" s="2">
-        <v>216.31878324228859</v>
+        <v>1407.3986402472931</v>
       </c>
       <c r="F64" s="2">
-        <v>216.31878324228859</v>
+        <v>1407.3986402472931</v>
       </c>
       <c r="G64" s="2">
-        <v>48.072682287118113</v>
+        <v>34.595389037482057</v>
       </c>
       <c r="H64" s="2">
-        <v>48.072682287118113</v>
+        <v>34.595389037482057</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D65" s="2">
-        <v>2373038.793759197</v>
+        <v>41337485.194846638</v>
       </c>
       <c r="E65" s="2">
-        <v>107.24413766764501</v>
+        <v>1401.2182064522019</v>
       </c>
       <c r="F65" s="2">
-        <v>107.24413766764501</v>
+        <v>1401.2182064522019</v>
       </c>
       <c r="G65" s="2">
-        <v>45.192745247015779</v>
+        <v>33.897035580357112</v>
       </c>
       <c r="H65" s="2">
-        <v>45.192745247015779</v>
+        <v>33.897035580357112</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2197,25 +2194,25 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C66" s="1">
         <v>2023</v>
       </c>
       <c r="D66" s="2">
-        <v>41337485.194846638</v>
+        <v>48614223.671441212</v>
       </c>
       <c r="E66" s="2">
-        <v>1401.218206452203</v>
+        <v>1640.269017574655</v>
       </c>
       <c r="F66" s="2">
-        <v>1401.218206452203</v>
+        <v>1640.269017574655</v>
       </c>
       <c r="G66" s="2">
-        <v>33.897035580357127</v>
+        <v>33.740516534016848</v>
       </c>
       <c r="H66" s="2">
-        <v>33.897035580357127</v>
+        <v>33.740516534016848</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2223,108 +2220,108 @@
         <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D67" s="2">
-        <v>103428323.8722976</v>
+        <v>39066938.962529063</v>
       </c>
       <c r="E67" s="2">
-        <v>2800.3180071816</v>
+        <v>1302.283874404761</v>
       </c>
       <c r="F67" s="2">
-        <v>2800.3180071816</v>
+        <v>1302.283874404761</v>
       </c>
       <c r="G67" s="2">
-        <v>27.074962663410631</v>
+        <v>33.334679117138997</v>
       </c>
       <c r="H67" s="2">
-        <v>27.074962663410631</v>
+        <v>33.334679117138997</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1">
         <v>2023</v>
       </c>
       <c r="D68" s="2">
-        <v>161706351.00274569</v>
+        <v>38442756.770874858</v>
       </c>
       <c r="E68" s="2">
-        <v>21882.751804347521</v>
+        <v>1222.9956584378231</v>
       </c>
       <c r="F68" s="2">
-        <v>21882.751804347521</v>
+        <v>1222.9956584378231</v>
       </c>
       <c r="G68" s="2">
-        <v>135.32400965485871</v>
+        <v>31.813422375691669</v>
       </c>
       <c r="H68" s="2">
-        <v>135.32400965485871</v>
+        <v>31.813422375691669</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D69" s="2">
-        <v>243210266.25725079</v>
+        <v>45979877.120768219</v>
       </c>
       <c r="E69" s="2">
-        <v>31226.017049679311</v>
+        <v>1410.261262265223</v>
       </c>
       <c r="F69" s="2">
-        <v>31226.017049679311</v>
+        <v>1410.261262265223</v>
       </c>
       <c r="G69" s="2">
-        <v>128.3910318845283</v>
+        <v>30.671270794419659</v>
       </c>
       <c r="H69" s="2">
-        <v>128.3910318845283</v>
+        <v>30.671270794419659</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C70" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D70" s="2">
-        <v>4655095023.6432981</v>
+        <v>168636661.5560675</v>
       </c>
       <c r="E70" s="2">
-        <v>41905.552448935377</v>
+        <v>4795.8013073616676</v>
       </c>
       <c r="F70" s="2">
-        <v>41556.227510084907</v>
+        <v>4795.8013073616676</v>
       </c>
       <c r="G70" s="2">
-        <v>9.0020831446181973</v>
+        <v>28.438663711136051</v>
       </c>
       <c r="H70" s="2">
-        <v>8.9270417250389524</v>
+        <v>28.438663711136051</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
@@ -2333,102 +2330,102 @@
         <v>2022</v>
       </c>
       <c r="D71" s="2">
-        <v>6081630508.0043879</v>
+        <v>223760357.72891039</v>
       </c>
       <c r="E71" s="2">
-        <v>50015.311318147164</v>
+        <v>6306.8480533145448</v>
       </c>
       <c r="F71" s="2">
-        <v>49714.513382318059</v>
+        <v>6306.8480533145448</v>
       </c>
       <c r="G71" s="2">
-        <v>8.2239970436084686</v>
+        <v>28.18572564562756</v>
       </c>
       <c r="H71" s="2">
-        <v>8.1745369628894586</v>
+        <v>28.18572564562756</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="1">
         <v>2022</v>
       </c>
       <c r="D72" s="2">
-        <v>169407936.17192289</v>
+        <v>185257466.97268209</v>
       </c>
       <c r="E72" s="2">
-        <v>118250.4624203105</v>
+        <v>5206.1671022737664</v>
       </c>
       <c r="F72" s="2">
-        <v>118250.46242052771</v>
+        <v>5206.1671022737664</v>
       </c>
       <c r="G72" s="2">
-        <v>698.02197637485256</v>
+        <v>28.102333403065821</v>
       </c>
       <c r="H72" s="2">
-        <v>698.0219763761346</v>
+        <v>28.102333403065821</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C73" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D73" s="2">
-        <v>145925031.13254821</v>
+        <v>149009323.2514379</v>
       </c>
       <c r="E73" s="2">
-        <v>92750.276029171175</v>
+        <v>4161.1908144989293</v>
       </c>
       <c r="F73" s="2">
-        <v>92733.52474921284</v>
+        <v>4161.1908144989293</v>
       </c>
       <c r="G73" s="2">
-        <v>635.60223567760102</v>
+        <v>27.925707759086649</v>
       </c>
       <c r="H73" s="2">
-        <v>635.48744193845755</v>
+        <v>27.925707759086649</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D74" s="2">
-        <v>4617273.6624474656</v>
+        <v>48401407.842929773</v>
       </c>
       <c r="E74" s="2">
-        <v>199.34035830626189</v>
+        <v>1351.2138101527789</v>
       </c>
       <c r="F74" s="2">
-        <v>199.34035830626189</v>
+        <v>1351.2138101527789</v>
       </c>
       <c r="G74" s="2">
-        <v>43.172740642926961</v>
+        <v>27.916828670308139</v>
       </c>
       <c r="H74" s="2">
-        <v>43.172740642926961</v>
+        <v>27.916828670308139</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -2437,19 +2434,19 @@
         <v>2022</v>
       </c>
       <c r="D75" s="2">
-        <v>7062258.6795196561</v>
+        <v>128786084.266791</v>
       </c>
       <c r="E75" s="2">
-        <v>287.07636477997698</v>
+        <v>3583.0584919783778</v>
       </c>
       <c r="F75" s="2">
-        <v>287.07636477997698</v>
+        <v>3583.0584919783778</v>
       </c>
       <c r="G75" s="2">
-        <v>40.649369813157662</v>
+        <v>27.821783016212979</v>
       </c>
       <c r="H75" s="2">
-        <v>40.649369813157662</v>
+        <v>27.821783016212979</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2457,25 +2454,25 @@
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C76" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D76" s="2">
-        <v>38442756.77087485</v>
+        <v>55347970.649452791</v>
       </c>
       <c r="E76" s="2">
-        <v>1222.9956584378219</v>
+        <v>1530.4742033065879</v>
       </c>
       <c r="F76" s="2">
-        <v>1222.9956584378219</v>
+        <v>1530.4742033065879</v>
       </c>
       <c r="G76" s="2">
-        <v>31.813422375691669</v>
+        <v>27.651857608291909</v>
       </c>
       <c r="H76" s="2">
-        <v>31.813422375691669</v>
+        <v>27.651857608291909</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2483,264 +2480,264 @@
         <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C77" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D77" s="2">
-        <v>67726228.628502816</v>
+        <v>47074278.932267003</v>
       </c>
       <c r="E77" s="2">
-        <v>1844.136440333436</v>
+        <v>1285.0084597141699</v>
       </c>
       <c r="F77" s="2">
-        <v>1844.136440333436</v>
+        <v>1285.0084597141699</v>
       </c>
       <c r="G77" s="2">
-        <v>27.229279965506962</v>
+        <v>27.297464536060321</v>
       </c>
       <c r="H77" s="2">
-        <v>27.229279965506962</v>
+        <v>27.297464536060321</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C78" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D78" s="2">
-        <v>182010671.444361</v>
+        <v>67726228.628502816</v>
       </c>
       <c r="E78" s="2">
-        <v>24645.751064031319</v>
+        <v>1844.136440333436</v>
       </c>
       <c r="F78" s="2">
-        <v>24645.751064031319</v>
+        <v>1844.136440333436</v>
       </c>
       <c r="G78" s="2">
-        <v>135.40827506680179</v>
+        <v>27.229279965506962</v>
       </c>
       <c r="H78" s="2">
-        <v>135.40827506680179</v>
+        <v>27.229279965506962</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C79" s="1">
         <v>2022</v>
       </c>
       <c r="D79" s="2">
-        <v>280053790.41566932</v>
+        <v>103428323.8722976</v>
       </c>
       <c r="E79" s="2">
-        <v>37069.776743680239</v>
+        <v>2800.3180071816</v>
       </c>
       <c r="F79" s="2">
-        <v>37069.776743680239</v>
+        <v>2800.3180071816</v>
       </c>
       <c r="G79" s="2">
-        <v>132.3666310270591</v>
+        <v>27.074962663410631</v>
       </c>
       <c r="H79" s="2">
-        <v>132.3666310270591</v>
+        <v>27.074962663410631</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C80" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D80" s="2">
-        <v>4664451690.6759949</v>
+        <v>68716209.818704262</v>
       </c>
       <c r="E80" s="2">
-        <v>43938.794486266008</v>
+        <v>1788.836419755055</v>
       </c>
       <c r="F80" s="2">
-        <v>43581.950558310033</v>
+        <v>1788.836419755055</v>
       </c>
       <c r="G80" s="2">
-        <v>9.4199270139505256</v>
+        <v>26.03223350756085</v>
       </c>
       <c r="H80" s="2">
-        <v>9.3434241468141206</v>
+        <v>26.03223350756085</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C81" s="1">
         <v>2022</v>
       </c>
       <c r="D81" s="2">
-        <v>6516631132.9079809</v>
+        <v>48928742.131406792</v>
       </c>
       <c r="E81" s="2">
-        <v>52592.490433042527</v>
+        <v>1241.940306064623</v>
       </c>
       <c r="F81" s="2">
-        <v>52272.361266165994</v>
+        <v>1241.940306064623</v>
       </c>
       <c r="G81" s="2">
-        <v>8.0705028964212158</v>
+        <v>25.382633028439031</v>
       </c>
       <c r="H81" s="2">
-        <v>8.0213779482160099</v>
+        <v>25.382633028439031</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C82" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D82" s="2">
-        <v>175480513.3783139</v>
+        <v>48513309.139894351</v>
       </c>
       <c r="E82" s="2">
-        <v>122821.3775560753</v>
+        <v>1228.8575548974979</v>
       </c>
       <c r="F82" s="2">
-        <v>122812.89763607411</v>
+        <v>1228.8575548974979</v>
       </c>
       <c r="G82" s="2">
-        <v>699.91462408870382</v>
+        <v>25.330318147416619</v>
       </c>
       <c r="H82" s="2">
-        <v>699.86630009056898</v>
+        <v>25.330318147416619</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C83" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D83" s="2">
-        <v>127928763.283178</v>
+        <v>56003796.084564403</v>
       </c>
       <c r="E83" s="2">
-        <v>82323.323199521721</v>
+        <v>1390.8012438399819</v>
       </c>
       <c r="F83" s="2">
-        <v>82323.32319956478</v>
+        <v>1390.8012438399819</v>
       </c>
       <c r="G83" s="2">
-        <v>643.50909902329067</v>
+        <v>24.8340530656155</v>
       </c>
       <c r="H83" s="2">
-        <v>643.50909902362719</v>
+        <v>24.8340530656155</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C84" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D84" s="2">
-        <v>147090241.21370849</v>
+        <v>53332911.848596454</v>
       </c>
       <c r="E84" s="2">
-        <v>92848.295064160789</v>
+        <v>1309.625408931113</v>
       </c>
       <c r="F84" s="2">
-        <v>92740.746524503877</v>
+        <v>1309.625408931113</v>
       </c>
       <c r="G84" s="2">
-        <v>631.23354954092974</v>
+        <v>24.555670476964181</v>
       </c>
       <c r="H84" s="2">
-        <v>630.50237567943168</v>
+        <v>24.555670476964181</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D85" s="2">
-        <v>121771.278932474</v>
+        <v>52299241.626828253</v>
       </c>
       <c r="E85" s="2">
-        <v>8.7570234864099969</v>
+        <v>1273.7515698983841</v>
       </c>
       <c r="F85" s="2">
-        <v>8.7570234864099969</v>
+        <v>1273.7515698983841</v>
       </c>
       <c r="G85" s="2">
-        <v>71.913702173285415</v>
+        <v>24.35506768887792</v>
       </c>
       <c r="H85" s="2">
-        <v>71.913702173285415</v>
+        <v>24.35506768887792</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D86" s="2">
-        <v>1821786.3023248969</v>
+        <v>57482433.243782528</v>
       </c>
       <c r="E86" s="2">
-        <v>91.835786150974968</v>
+        <v>1294.0352830001821</v>
       </c>
       <c r="F86" s="2">
-        <v>91.835786150974968</v>
+        <v>1294.0352830001821</v>
       </c>
       <c r="G86" s="2">
-        <v>50.409746759967142</v>
+        <v>22.511839008487851</v>
       </c>
       <c r="H86" s="2">
-        <v>50.409746759967142</v>
+        <v>22.511839008487851</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
@@ -2749,19 +2746,19 @@
         <v>2024</v>
       </c>
       <c r="D87" s="2">
-        <v>6942121.6210295223</v>
+        <v>74773413.135558724</v>
       </c>
       <c r="E87" s="2">
-        <v>238.76026569381389</v>
+        <v>1674.212669331295</v>
       </c>
       <c r="F87" s="2">
-        <v>238.76026569381389</v>
+        <v>1674.212669331295</v>
       </c>
       <c r="G87" s="2">
-        <v>34.392982250634446</v>
+        <v>22.390480775514021</v>
       </c>
       <c r="H87" s="2">
-        <v>34.392982250634446</v>
+        <v>22.390480775514021</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2769,25 +2766,25 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C88" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D88" s="2">
-        <v>45979877.120768227</v>
+        <v>97140307.106537104</v>
       </c>
       <c r="E88" s="2">
-        <v>1410.261262265223</v>
+        <v>2141.7317886063661</v>
       </c>
       <c r="F88" s="2">
-        <v>1410.261262265223</v>
+        <v>2141.7317886063661</v>
       </c>
       <c r="G88" s="2">
-        <v>30.671270794419659</v>
+        <v>22.04781776381925</v>
       </c>
       <c r="H88" s="2">
-        <v>30.671270794419659</v>
+        <v>22.04781776381925</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -2795,25 +2792,25 @@
         <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C89" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D89" s="2">
-        <v>223760357.72891039</v>
+        <v>54253065.949148603</v>
       </c>
       <c r="E89" s="2">
-        <v>6306.8480533145421</v>
+        <v>1177.9143793870271</v>
       </c>
       <c r="F89" s="2">
-        <v>6306.8480533145421</v>
+        <v>1177.9143793870271</v>
       </c>
       <c r="G89" s="2">
-        <v>28.185725645627539</v>
+        <v>21.711480425660849</v>
       </c>
       <c r="H89" s="2">
-        <v>28.185725645627539</v>
+        <v>21.711480425660849</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -2821,51 +2818,51 @@
         <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C90" s="1">
         <v>2024</v>
       </c>
       <c r="D90" s="2">
-        <v>57465522.494443879</v>
+        <v>81284601.508632198</v>
       </c>
       <c r="E90" s="2">
-        <v>1293.5234180772329</v>
+        <v>1758.746553074996</v>
       </c>
       <c r="F90" s="2">
-        <v>1293.5234180772329</v>
+        <v>1758.746553074996</v>
       </c>
       <c r="G90" s="2">
-        <v>22.50955637273286</v>
+        <v>21.636897031330371</v>
       </c>
       <c r="H90" s="2">
-        <v>22.50955637273286</v>
+        <v>21.636897031330371</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C91" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D91" s="2">
-        <v>162370732.47807941</v>
+        <v>69337197.350763932</v>
       </c>
       <c r="E91" s="2">
-        <v>21422.583142991061</v>
+        <v>1475.8275225779821</v>
       </c>
       <c r="F91" s="2">
-        <v>21422.583142991061</v>
+        <v>1475.8275225779821</v>
       </c>
       <c r="G91" s="2">
-        <v>131.93623515791671</v>
+        <v>21.284787660395999</v>
       </c>
       <c r="H91" s="2">
-        <v>131.93623515791671</v>
+        <v>21.284787660395999</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -2876,22 +2873,22 @@
         <v>16</v>
       </c>
       <c r="C92" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D92" s="2">
-        <v>245964027.14310911</v>
+        <v>160590209.00989291</v>
       </c>
       <c r="E92" s="2">
-        <v>32369.268328221569</v>
+        <v>22558.851099588679</v>
       </c>
       <c r="F92" s="2">
-        <v>32369.268328221569</v>
+        <v>22558.851099588679</v>
       </c>
       <c r="G92" s="2">
-        <v>131.60163583347159</v>
+        <v>140.47463564979219</v>
       </c>
       <c r="H92" s="2">
-        <v>131.60163583347159</v>
+        <v>140.47463564979219</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -2899,337 +2896,337 @@
         <v>23</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C93" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D93" s="2">
-        <v>157445195.79409751</v>
+        <v>160909633.02613831</v>
       </c>
       <c r="E93" s="2">
-        <v>18910.640947398551</v>
+        <v>22446.072083634139</v>
       </c>
       <c r="F93" s="2">
-        <v>18910.640947398551</v>
+        <v>22446.072083634139</v>
       </c>
       <c r="G93" s="2">
-        <v>120.1093552078233</v>
+        <v>139.49489326091481</v>
       </c>
       <c r="H93" s="2">
-        <v>120.1093552078233</v>
+        <v>139.49489326091481</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C94" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D94" s="2">
-        <v>4102955746.423955</v>
+        <v>163372504.89344209</v>
       </c>
       <c r="E94" s="2">
-        <v>38646.522918692157</v>
+        <v>22676.12489494458</v>
       </c>
       <c r="F94" s="2">
-        <v>38365.032442824922</v>
+        <v>22676.12489494458</v>
       </c>
       <c r="G94" s="2">
-        <v>9.4191907754246689</v>
+        <v>138.80012986110989</v>
       </c>
       <c r="H94" s="2">
-        <v>9.350584021351688</v>
+        <v>138.80012986110989</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C95" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D95" s="2">
-        <v>6762816762.2306395</v>
+        <v>153851306.53345901</v>
       </c>
       <c r="E95" s="2">
-        <v>60789.84272823912</v>
+        <v>21071.637182947248</v>
       </c>
       <c r="F95" s="2">
-        <v>60756.213578431991</v>
+        <v>21071.637182947248</v>
       </c>
       <c r="G95" s="2">
-        <v>8.9888348103325342</v>
+        <v>136.9610545254919</v>
       </c>
       <c r="H95" s="2">
-        <v>8.9838621560392902</v>
+        <v>136.9610545254919</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C96" s="1">
         <v>2023</v>
       </c>
       <c r="D96" s="2">
-        <v>4985220676.3838339</v>
+        <v>175267246.6559684</v>
       </c>
       <c r="E96" s="2">
-        <v>42676.562598040553</v>
+        <v>24000.35411383009</v>
       </c>
       <c r="F96" s="2">
-        <v>42278.711029196013</v>
+        <v>24000.35411383009</v>
       </c>
       <c r="G96" s="2">
-        <v>8.5606165440598225</v>
+        <v>136.93576279508929</v>
       </c>
       <c r="H96" s="2">
-        <v>8.4808103339296981</v>
+        <v>136.93576279508929</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C97" s="1">
         <v>2022</v>
       </c>
       <c r="D97" s="2">
-        <v>170132455.93025771</v>
+        <v>269266653.3094573</v>
       </c>
       <c r="E97" s="2">
-        <v>121752.4527674549</v>
+        <v>36573.730814321287</v>
       </c>
       <c r="F97" s="2">
-        <v>121715.0238274069</v>
+        <v>36573.730814321287</v>
       </c>
       <c r="G97" s="2">
-        <v>715.63331112650746</v>
+        <v>135.82718232951251</v>
       </c>
       <c r="H97" s="2">
-        <v>715.41331230357082</v>
+        <v>135.82718232951251</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C98" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D98" s="2">
-        <v>137698130.19623771</v>
+        <v>182010671.44436109</v>
       </c>
       <c r="E98" s="2">
-        <v>89136.686362143606</v>
+        <v>24645.75106403129</v>
       </c>
       <c r="F98" s="2">
-        <v>89028.516073162071</v>
+        <v>24645.75106403129</v>
       </c>
       <c r="G98" s="2">
-        <v>647.33403594596552</v>
+        <v>135.40827506680159</v>
       </c>
       <c r="H98" s="2">
-        <v>646.54847488694907</v>
+        <v>135.40827506680159</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C99" s="1">
         <v>2023</v>
       </c>
       <c r="D99" s="2">
-        <v>124494407.9258257</v>
+        <v>161706255.0922327</v>
       </c>
       <c r="E99" s="2">
-        <v>79805.847030655539</v>
+        <v>21882.742127258269</v>
       </c>
       <c r="F99" s="2">
-        <v>79796.517970428482</v>
+        <v>21882.742127258269</v>
       </c>
       <c r="G99" s="2">
-        <v>641.03961262424059</v>
+        <v>135.32403007401891</v>
       </c>
       <c r="H99" s="2">
-        <v>640.96467704775591</v>
+        <v>135.32403007401891</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C100" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D100" s="2">
-        <v>2542475.678992243</v>
+        <v>232355821.2340942</v>
       </c>
       <c r="E100" s="2">
-        <v>136.12635137078161</v>
+        <v>31354.29042405757</v>
       </c>
       <c r="F100" s="2">
-        <v>136.12635137078161</v>
+        <v>31354.29042405757</v>
       </c>
       <c r="G100" s="2">
-        <v>53.540866681854673</v>
+        <v>134.94084313243309</v>
       </c>
       <c r="H100" s="2">
-        <v>53.540866681854673</v>
+        <v>134.94084313243309</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1">
         <v>2022</v>
       </c>
       <c r="D101" s="2">
-        <v>338281.53897434048</v>
+        <v>280053790.41567057</v>
       </c>
       <c r="E101" s="2">
-        <v>16.504432646840002</v>
+        <v>37069.776743680268</v>
       </c>
       <c r="F101" s="2">
-        <v>16.504432646840002</v>
+        <v>37069.776743680268</v>
       </c>
       <c r="G101" s="2">
-        <v>48.789043282943993</v>
+        <v>132.36663102705859</v>
       </c>
       <c r="H101" s="2">
-        <v>48.789043282943993</v>
+        <v>132.36663102705859</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C102" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D102" s="2">
-        <v>3925893.2640922908</v>
+        <v>270167742.2003091</v>
       </c>
       <c r="E102" s="2">
-        <v>157.356658074119</v>
+        <v>35678.384610248148</v>
       </c>
       <c r="F102" s="2">
-        <v>157.356658074119</v>
+        <v>35678.384610248148</v>
       </c>
       <c r="G102" s="2">
-        <v>40.081746366709119</v>
+        <v>132.060120574259</v>
       </c>
       <c r="H102" s="2">
-        <v>40.081746366709119</v>
+        <v>132.060120574259</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C103" s="1">
         <v>2023</v>
       </c>
       <c r="D103" s="2">
-        <v>40681682.715649188</v>
+        <v>162370732.47807959</v>
       </c>
       <c r="E103" s="2">
-        <v>1407.3986402472931</v>
+        <v>21422.58314299105</v>
       </c>
       <c r="F103" s="2">
-        <v>1407.3986402472931</v>
+        <v>21422.58314299105</v>
       </c>
       <c r="G103" s="2">
-        <v>34.59538903748205</v>
+        <v>131.93623515791651</v>
       </c>
       <c r="H103" s="2">
-        <v>34.59538903748205</v>
+        <v>131.93623515791651</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C104" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D104" s="2">
-        <v>185257466.972682</v>
+        <v>143348393.30678779</v>
       </c>
       <c r="E104" s="2">
-        <v>5206.1671022737646</v>
+        <v>18893.295569210819</v>
       </c>
       <c r="F104" s="2">
-        <v>5206.1671022737646</v>
+        <v>18893.295569210819</v>
       </c>
       <c r="G104" s="2">
-        <v>28.102333403065821</v>
+        <v>131.79984186342591</v>
       </c>
       <c r="H104" s="2">
-        <v>28.102333403065821</v>
+        <v>131.79984186342591</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C105" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D105" s="2">
-        <v>81249529.996365175</v>
+        <v>245964027.14310911</v>
       </c>
       <c r="E105" s="2">
-        <v>1758.104644391266</v>
+        <v>32369.268328221518</v>
       </c>
       <c r="F105" s="2">
-        <v>1758.104644391266</v>
+        <v>32369.268328221518</v>
       </c>
       <c r="G105" s="2">
-        <v>21.63833617831288</v>
+        <v>131.60163583347139</v>
       </c>
       <c r="H105" s="2">
-        <v>21.63833617831288</v>
+        <v>131.60163583347139</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3237,25 +3234,25 @@
         <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C106" s="1">
         <v>2023</v>
       </c>
       <c r="D106" s="2">
-        <v>175267246.6559684</v>
+        <v>157489264.16825891</v>
       </c>
       <c r="E106" s="2">
-        <v>24000.35411383009</v>
+        <v>20533.72380327696</v>
       </c>
       <c r="F106" s="2">
-        <v>24000.35411383009</v>
+        <v>20533.72380327696</v>
       </c>
       <c r="G106" s="2">
-        <v>136.93576279508929</v>
+        <v>130.38173688677011</v>
       </c>
       <c r="H106" s="2">
-        <v>136.93576279508929</v>
+        <v>130.38173688677011</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3263,25 +3260,25 @@
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C107" s="1">
         <v>2022</v>
       </c>
       <c r="D107" s="2">
-        <v>273619763.70588481</v>
+        <v>210861191.77884451</v>
       </c>
       <c r="E107" s="2">
-        <v>35323.83581608512</v>
+        <v>27428.986025753438</v>
       </c>
       <c r="F107" s="2">
-        <v>35323.83581608512</v>
+        <v>27428.986025753438</v>
       </c>
       <c r="G107" s="2">
-        <v>129.0982615351385</v>
+        <v>130.0807692224443</v>
       </c>
       <c r="H107" s="2">
-        <v>129.0982615351385</v>
+        <v>130.0807692224443</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3289,259 +3286,259 @@
         <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C108" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D108" s="2">
-        <v>184932437.23045409</v>
+        <v>214401644.02473399</v>
       </c>
       <c r="E108" s="2">
-        <v>20529.886030155991</v>
+        <v>27863.73315263445</v>
       </c>
       <c r="F108" s="2">
-        <v>20529.886030155991</v>
+        <v>27863.73315263445</v>
       </c>
       <c r="G108" s="2">
-        <v>111.01289929236491</v>
+        <v>129.96044540320781</v>
       </c>
       <c r="H108" s="2">
-        <v>111.01289929236491</v>
+        <v>129.96044540320781</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C109" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D109" s="2">
-        <v>4367209059.4248066</v>
+        <v>151307519.65304431</v>
       </c>
       <c r="E109" s="2">
-        <v>41633.020457519808</v>
+        <v>19629.72073822299</v>
       </c>
       <c r="F109" s="2">
-        <v>41299.510056571977</v>
+        <v>19629.72073822299</v>
       </c>
       <c r="G109" s="2">
-        <v>9.5330953684647248</v>
+        <v>129.73394040980199</v>
       </c>
       <c r="H109" s="2">
-        <v>9.4567284264636111</v>
+        <v>129.73394040980199</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D110" s="2">
-        <v>4389534042.7002659</v>
+        <v>273619763.7058838</v>
       </c>
       <c r="E110" s="2">
-        <v>40139.960300888277</v>
+        <v>35323.8358160852</v>
       </c>
       <c r="F110" s="2">
-        <v>39843.302336970002</v>
+        <v>35323.8358160852</v>
       </c>
       <c r="G110" s="2">
-        <v>9.1444695292067433</v>
+        <v>129.0982615351393</v>
       </c>
       <c r="H110" s="2">
-        <v>9.0768865099084621</v>
+        <v>129.0982615351393</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C111" s="1">
         <v>2022</v>
       </c>
       <c r="D111" s="2">
-        <v>7752652534.5017986</v>
+        <v>243210266.25725091</v>
       </c>
       <c r="E111" s="2">
-        <v>63585.338748979339</v>
+        <v>31226.017049679289</v>
       </c>
       <c r="F111" s="2">
-        <v>63502.091779149923</v>
+        <v>31226.017049679289</v>
       </c>
       <c r="G111" s="2">
-        <v>8.2017526860650758</v>
+        <v>128.39103188452819</v>
       </c>
       <c r="H111" s="2">
-        <v>8.1910148167411325</v>
+        <v>128.39103188452819</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C112" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D112" s="2">
-        <v>143568702.5062488</v>
+        <v>164546081.45223609</v>
       </c>
       <c r="E112" s="2">
-        <v>99076.605114341597</v>
+        <v>20936.845123946281</v>
       </c>
       <c r="F112" s="2">
-        <v>99073.617884384759</v>
+        <v>20936.845123946281</v>
       </c>
       <c r="G112" s="2">
-        <v>690.09891003249322</v>
+        <v>127.24001045277851</v>
       </c>
       <c r="H112" s="2">
-        <v>690.07810306060674</v>
+        <v>127.24001045277851</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C113" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D113" s="2">
-        <v>147173391.88029999</v>
+        <v>231296730.69428301</v>
       </c>
       <c r="E113" s="2">
-        <v>93019.721471926809</v>
+        <v>29283.21595007756</v>
       </c>
       <c r="F113" s="2">
-        <v>92902.333822459899</v>
+        <v>29283.21595007756</v>
       </c>
       <c r="G113" s="2">
-        <v>632.04170457376017</v>
+        <v>126.6045389495052</v>
       </c>
       <c r="H113" s="2">
-        <v>631.24408995085082</v>
+        <v>126.6045389495052</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C114" s="1">
         <v>2022</v>
       </c>
       <c r="D114" s="2">
-        <v>1047114.8301536849</v>
+        <v>263804218.86335471</v>
       </c>
       <c r="E114" s="2">
-        <v>50.158896686665003</v>
+        <v>33368.528173760809</v>
       </c>
       <c r="F114" s="2">
-        <v>50.158896686665003</v>
+        <v>33368.528173760809</v>
       </c>
       <c r="G114" s="2">
-        <v>47.902001998484891</v>
+        <v>126.4897442411451</v>
       </c>
       <c r="H114" s="2">
-        <v>47.902001998484891</v>
+        <v>126.4897442411451</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C115" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D115" s="2">
-        <v>3988884.694420808</v>
+        <v>317445237.5593344</v>
       </c>
       <c r="E115" s="2">
-        <v>155.45299542580651</v>
+        <v>39722.347307316959</v>
       </c>
       <c r="F115" s="2">
-        <v>155.45299542580651</v>
+        <v>39722.347307316959</v>
       </c>
       <c r="G115" s="2">
-        <v>38.971544011597082</v>
+        <v>125.13133796783571</v>
       </c>
       <c r="H115" s="2">
-        <v>38.971544011597082</v>
+        <v>125.13133796783571</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C116" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D116" s="2">
-        <v>48928742.131406777</v>
+        <v>157560463.88376009</v>
       </c>
       <c r="E116" s="2">
-        <v>1241.940306064623</v>
+        <v>18921.00394163535</v>
       </c>
       <c r="F116" s="2">
-        <v>1241.940306064623</v>
+        <v>18921.00394163535</v>
       </c>
       <c r="G116" s="2">
-        <v>25.382633028439049</v>
+        <v>120.08725714081601</v>
       </c>
       <c r="H116" s="2">
-        <v>25.382633028439049</v>
+        <v>120.08725714081601</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C117" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D117" s="2">
-        <v>53332911.848596461</v>
+        <v>190056835.90889871</v>
       </c>
       <c r="E117" s="2">
-        <v>1309.625408931114</v>
+        <v>22609.670964118479</v>
       </c>
       <c r="F117" s="2">
-        <v>1309.625408931114</v>
+        <v>22609.670964118479</v>
       </c>
       <c r="G117" s="2">
-        <v>24.555670476964188</v>
+        <v>118.9626821681707</v>
       </c>
       <c r="H117" s="2">
-        <v>24.555670476964188</v>
+        <v>118.9626821681707</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -3549,25 +3546,25 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C118" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D118" s="2">
-        <v>214401644.0247345</v>
+        <v>196848695.08482891</v>
       </c>
       <c r="E118" s="2">
-        <v>27863.733152634471</v>
+        <v>23063.592267379379</v>
       </c>
       <c r="F118" s="2">
-        <v>27863.733152634471</v>
+        <v>23063.592267379379</v>
       </c>
       <c r="G118" s="2">
-        <v>129.9604454032077</v>
+        <v>117.1640597233346</v>
       </c>
       <c r="H118" s="2">
-        <v>129.9604454032077</v>
+        <v>117.1640597233346</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3575,285 +3572,285 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C119" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D119" s="2">
-        <v>199997127.23210871</v>
+        <v>201682569.52063331</v>
       </c>
       <c r="E119" s="2">
-        <v>20869.18953917229</v>
+        <v>23263.447272663689</v>
       </c>
       <c r="F119" s="2">
-        <v>20869.18953917229</v>
+        <v>23263.447272663689</v>
       </c>
       <c r="G119" s="2">
-        <v>104.347446525831</v>
+        <v>115.3468409687417</v>
       </c>
       <c r="H119" s="2">
-        <v>104.347446525831</v>
+        <v>115.3468409687417</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C120" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D120" s="2">
-        <v>4081748890.7551398</v>
+        <v>184952834.92620081</v>
       </c>
       <c r="E120" s="2">
-        <v>38275.852770580277</v>
+        <v>20537.216137899431</v>
       </c>
       <c r="F120" s="2">
-        <v>38026.767130487977</v>
+        <v>20537.216137899431</v>
       </c>
       <c r="G120" s="2">
-        <v>9.3773168793583181</v>
+        <v>111.04028843945061</v>
       </c>
       <c r="H120" s="2">
-        <v>9.3162926353984652</v>
+        <v>111.04028843945061</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D121" s="2">
-        <v>5243457863.8538351</v>
+        <v>199997127.23210889</v>
       </c>
       <c r="E121" s="2">
-        <v>43476.024271344701</v>
+        <v>20869.189539172199</v>
       </c>
       <c r="F121" s="2">
-        <v>43083.641077522043</v>
+        <v>20869.189539172199</v>
       </c>
       <c r="G121" s="2">
-        <v>8.2914796686075984</v>
+        <v>104.34744652583051</v>
       </c>
       <c r="H121" s="2">
-        <v>8.216646761771905</v>
+        <v>104.34744652583051</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C122" s="1">
         <v>2022</v>
       </c>
       <c r="D122" s="2">
-        <v>155226195.67817751</v>
+        <v>9026797741.4573517</v>
       </c>
       <c r="E122" s="2">
-        <v>108332.22342940151</v>
+        <v>89298.533560824319</v>
       </c>
       <c r="F122" s="2">
-        <v>108332.2234296956</v>
+        <v>89097.484261025049</v>
       </c>
       <c r="G122" s="2">
-        <v>697.89910753208903</v>
+        <v>9.8926037913426565</v>
       </c>
       <c r="H122" s="2">
-        <v>697.89910753398362</v>
+        <v>9.8703312972026893</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C123" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D123" s="2">
-        <v>139673216.36471149</v>
+        <v>4622506626.7522221</v>
       </c>
       <c r="E123" s="2">
-        <v>88523.034831087047</v>
+        <v>44885.960959717093</v>
       </c>
       <c r="F123" s="2">
-        <v>88502.625321093365</v>
+        <v>44640.812355083988</v>
       </c>
       <c r="G123" s="2">
-        <v>633.78675693941022</v>
+        <v>9.710307541787996</v>
       </c>
       <c r="H123" s="2">
-        <v>633.64063364874028</v>
+        <v>9.6572738472088844</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C124" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D124" s="2">
-        <v>8615868.936302891</v>
+        <v>3918595729.0120282</v>
       </c>
       <c r="E124" s="2">
-        <v>362.79182878253499</v>
+        <v>37535.409685442799</v>
       </c>
       <c r="F124" s="2">
-        <v>362.79182878253499</v>
+        <v>37236.935715415981</v>
       </c>
       <c r="G124" s="2">
-        <v>42.107398738845113</v>
+        <v>9.5787910468902542</v>
       </c>
       <c r="H124" s="2">
-        <v>42.107398738845113</v>
+        <v>9.5026224419440961</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C125" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D125" s="2">
-        <v>4108947.5888532219</v>
+        <v>4367505470.0914354</v>
       </c>
       <c r="E125" s="2">
-        <v>166.33218210269851</v>
+        <v>41691.939357995223</v>
       </c>
       <c r="F125" s="2">
-        <v>166.33218210269851</v>
+        <v>41358.068730057967</v>
       </c>
       <c r="G125" s="2">
-        <v>40.480482777128969</v>
+        <v>9.5459386699113598</v>
       </c>
       <c r="H125" s="2">
-        <v>40.480482777128969</v>
+        <v>9.4694944318391734</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C126" s="1">
         <v>2023</v>
       </c>
       <c r="D126" s="2">
-        <v>39066938.962529063</v>
+        <v>4272884522.1227102</v>
       </c>
       <c r="E126" s="2">
-        <v>1302.283874404761</v>
+        <v>40570.50854484726</v>
       </c>
       <c r="F126" s="2">
-        <v>1302.283874404761</v>
+        <v>40291.184027888958</v>
       </c>
       <c r="G126" s="2">
-        <v>33.334679117138997</v>
+        <v>9.4948759637183908</v>
       </c>
       <c r="H126" s="2">
-        <v>33.334679117138997</v>
+        <v>9.4295045464680278</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C127" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D127" s="2">
-        <v>68716209.818704218</v>
+        <v>4787395439.5673265</v>
       </c>
       <c r="E127" s="2">
-        <v>1788.836419755055</v>
+        <v>45120.947414682902</v>
       </c>
       <c r="F127" s="2">
-        <v>1788.836419755055</v>
+        <v>44836.185064923979</v>
       </c>
       <c r="G127" s="2">
-        <v>26.032233507560871</v>
+        <v>9.424946818005246</v>
       </c>
       <c r="H127" s="2">
-        <v>26.032233507560871</v>
+        <v>9.3654651325348155</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C128" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D128" s="2">
-        <v>153851306.53345901</v>
+        <v>4103440281.285821</v>
       </c>
       <c r="E128" s="2">
-        <v>21071.637182947208</v>
+        <v>38671.647170901633</v>
       </c>
       <c r="F128" s="2">
-        <v>21071.637182947208</v>
+        <v>38390.167951032992</v>
       </c>
       <c r="G128" s="2">
-        <v>136.96105452549159</v>
+        <v>9.4242012847775118</v>
       </c>
       <c r="H128" s="2">
-        <v>136.96105452549159</v>
+        <v>9.3556053748644672</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C129" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D129" s="2">
-        <v>270167742.20030838</v>
+        <v>4664451690.6759968</v>
       </c>
       <c r="E129" s="2">
-        <v>35678.384610247987</v>
+        <v>43938.794486265921</v>
       </c>
       <c r="F129" s="2">
-        <v>35678.384610247987</v>
+        <v>43581.950558309982</v>
       </c>
       <c r="G129" s="2">
-        <v>132.0601205742588</v>
+        <v>9.4199270139505042</v>
       </c>
       <c r="H129" s="2">
-        <v>132.0601205742588</v>
+        <v>9.3434241468141046</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3861,25 +3858,25 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C130" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D130" s="2">
-        <v>4638168497.7236986</v>
+        <v>4904520342.7497168</v>
       </c>
       <c r="E130" s="2">
-        <v>43551.511054423463</v>
+        <v>46068.233035217643</v>
       </c>
       <c r="F130" s="2">
-        <v>43079.099238371957</v>
+        <v>45787.248804449009</v>
       </c>
       <c r="G130" s="2">
-        <v>9.3898078682991972</v>
+        <v>9.3930149771566658</v>
       </c>
       <c r="H130" s="2">
-        <v>9.2879547734227721</v>
+        <v>9.3357241085024061</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -3887,337 +3884,337 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C131" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D131" s="2">
-        <v>5937275372.1503363</v>
+        <v>4638168497.7237005</v>
       </c>
       <c r="E131" s="2">
-        <v>49384.348562747698</v>
+        <v>43551.511054423427</v>
       </c>
       <c r="F131" s="2">
-        <v>48995.049465981938</v>
+        <v>43079.099238372022</v>
       </c>
       <c r="G131" s="2">
-        <v>8.3176786433710408</v>
+        <v>9.3898078682991883</v>
       </c>
       <c r="H131" s="2">
-        <v>8.2521099991084181</v>
+        <v>9.2879547734227828</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C132" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D132" s="2">
-        <v>153467996.5561775</v>
+        <v>4378216142.9437628</v>
       </c>
       <c r="E132" s="2">
-        <v>107304.135837234</v>
+        <v>41098.4920912698</v>
       </c>
       <c r="F132" s="2">
-        <v>107304.13583707959</v>
+        <v>40667.841477189009</v>
       </c>
       <c r="G132" s="2">
-        <v>699.19552118447689</v>
+        <v>9.3870404633875797</v>
       </c>
       <c r="H132" s="2">
-        <v>699.19552118347065</v>
+        <v>9.2886783451137127</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C133" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D133" s="2">
-        <v>163887060.0518741</v>
+        <v>4081748890.7551389</v>
       </c>
       <c r="E133" s="2">
-        <v>105315.8155940865</v>
+        <v>38275.852770580314</v>
       </c>
       <c r="F133" s="2">
-        <v>105267.1162152071</v>
+        <v>38026.76713048797</v>
       </c>
       <c r="G133" s="2">
-        <v>642.61214741878723</v>
+        <v>9.3773168793583288</v>
       </c>
       <c r="H133" s="2">
-        <v>642.3149953503812</v>
+        <v>9.316292635398467</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="1">
         <v>2023</v>
       </c>
       <c r="D134" s="2">
-        <v>132634230.6921981</v>
+        <v>4271421559.5064378</v>
       </c>
       <c r="E134" s="2">
-        <v>82515.653422571166</v>
+        <v>40045.769245034673</v>
       </c>
       <c r="F134" s="2">
-        <v>82515.653423063108</v>
+        <v>39725.105329832957</v>
       </c>
       <c r="G134" s="2">
-        <v>622.12939293223462</v>
+        <v>9.3752790931883467</v>
       </c>
       <c r="H134" s="2">
-        <v>622.12939293594366</v>
+        <v>9.3002071503387711</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C135" s="1">
         <v>2023</v>
       </c>
       <c r="D135" s="2">
-        <v>1924043.3283526539</v>
+        <v>4571284525.3672123</v>
       </c>
       <c r="E135" s="2">
-        <v>99.488626934944079</v>
+        <v>42822.762750481248</v>
       </c>
       <c r="F135" s="2">
-        <v>99.488626934944079</v>
+        <v>42453.925698448948</v>
       </c>
       <c r="G135" s="2">
-        <v>51.708101095688519</v>
+        <v>9.3677745309544669</v>
       </c>
       <c r="H135" s="2">
-        <v>51.708101095688519</v>
+        <v>9.2870888834115224</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C136" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D136" s="2">
-        <v>1812040.4232031291</v>
+        <v>4709814872.5466242</v>
       </c>
       <c r="E136" s="2">
-        <v>82.791604372149976</v>
+        <v>44043.49149685257</v>
       </c>
       <c r="F136" s="2">
-        <v>82.791604372149976</v>
+        <v>43728.707192178983</v>
       </c>
       <c r="G136" s="2">
-        <v>45.689711615704432</v>
+        <v>9.3514273254307341</v>
       </c>
       <c r="H136" s="2">
-        <v>45.689711615704432</v>
+        <v>9.2845915127306498</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C137" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D137" s="2">
-        <v>3455699.3429843239</v>
+        <v>4434404302.4607487</v>
       </c>
       <c r="E137" s="2">
-        <v>140.48999656331591</v>
+        <v>40917.291389132493</v>
       </c>
       <c r="F137" s="2">
-        <v>140.48999656331591</v>
+        <v>40552.456349022963</v>
       </c>
       <c r="G137" s="2">
-        <v>40.654577444225652</v>
+        <v>9.2272351816063729</v>
       </c>
       <c r="H137" s="2">
-        <v>40.654577444225652</v>
+        <v>9.1449614385678615</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C138" s="1">
         <v>2023</v>
       </c>
       <c r="D138" s="2">
-        <v>43611665.764662452</v>
+        <v>4389534042.7002668</v>
       </c>
       <c r="E138" s="2">
-        <v>1752.4361317051971</v>
+        <v>40139.96030088835</v>
       </c>
       <c r="F138" s="2">
-        <v>1752.4361317051971</v>
+        <v>39843.302336969988</v>
       </c>
       <c r="G138" s="2">
-        <v>40.18273782894935</v>
+        <v>9.1444695292067593</v>
       </c>
       <c r="H138" s="2">
-        <v>40.18273782894935</v>
+        <v>9.0768865099084568</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C139" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D139" s="2">
-        <v>149009323.25143781</v>
+        <v>4655496669.0294399</v>
       </c>
       <c r="E139" s="2">
-        <v>4161.1908144989302</v>
+        <v>41907.316289993403</v>
       </c>
       <c r="F139" s="2">
-        <v>4161.1908144989302</v>
+        <v>41557.991351142948</v>
       </c>
       <c r="G139" s="2">
-        <v>27.925707759086659</v>
+        <v>9.0016853773692134</v>
       </c>
       <c r="H139" s="2">
-        <v>27.925707759086659</v>
+        <v>8.9266504318661237</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C140" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D140" s="2">
-        <v>74597729.29025811</v>
+        <v>6762816762.2306423</v>
       </c>
       <c r="E140" s="2">
-        <v>1673.1681871454559</v>
+        <v>60789.842728239157</v>
       </c>
       <c r="F140" s="2">
-        <v>1673.1681871454559</v>
+        <v>60756.213578431983</v>
       </c>
       <c r="G140" s="2">
-        <v>22.429210688641689</v>
+        <v>8.9888348103325324</v>
       </c>
       <c r="H140" s="2">
-        <v>22.429210688641689</v>
+        <v>8.9838621560392813</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C141" s="1">
         <v>2023</v>
       </c>
       <c r="D141" s="2">
-        <v>160590209.00989261</v>
+        <v>4985220676.3838406</v>
       </c>
       <c r="E141" s="2">
-        <v>22558.85109958865</v>
+        <v>42676.56259804056</v>
       </c>
       <c r="F141" s="2">
-        <v>22558.85109958865</v>
+        <v>42278.71102919602</v>
       </c>
       <c r="G141" s="2">
-        <v>140.47463564979219</v>
+        <v>8.5606165440598136</v>
       </c>
       <c r="H141" s="2">
-        <v>140.47463564979219</v>
+        <v>8.4808103339296874</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C142" s="1">
         <v>2022</v>
       </c>
       <c r="D142" s="2">
-        <v>231296730.69428241</v>
+        <v>5626782854.0181885</v>
       </c>
       <c r="E142" s="2">
-        <v>29283.215950077451</v>
+        <v>47751.86128900724</v>
       </c>
       <c r="F142" s="2">
-        <v>29283.215950077451</v>
+        <v>47425.993150191927</v>
       </c>
       <c r="G142" s="2">
-        <v>126.604538949505</v>
+        <v>8.4865299635486675</v>
       </c>
       <c r="H142" s="2">
-        <v>126.604538949505</v>
+        <v>8.4286162058527214</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C143" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D143" s="2">
-        <v>190691126.4049581</v>
+        <v>6317037678.5193911</v>
       </c>
       <c r="E143" s="2">
-        <v>22671.15084129875</v>
+        <v>53156.778959477451</v>
       </c>
       <c r="F143" s="2">
-        <v>22671.15084129875</v>
+        <v>52912.889257553034</v>
       </c>
       <c r="G143" s="2">
-        <v>118.8893855142139</v>
+        <v>8.4148269591984644</v>
       </c>
       <c r="H143" s="2">
-        <v>118.8893855142139</v>
+        <v>8.3762187199673228</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -4225,25 +4222,25 @@
         <v>24</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C144" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D144" s="2">
-        <v>4271421559.5064402</v>
+        <v>7007627857.1000977</v>
       </c>
       <c r="E144" s="2">
-        <v>40045.769245034629</v>
+        <v>58580.64294661249</v>
       </c>
       <c r="F144" s="2">
-        <v>39725.105329832913</v>
+        <v>58329.457133697957</v>
       </c>
       <c r="G144" s="2">
-        <v>9.3752790931883325</v>
+        <v>8.3595539234091678</v>
       </c>
       <c r="H144" s="2">
-        <v>9.3002071503387551</v>
+        <v>8.323709295521283</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4254,22 +4251,22 @@
         <v>17</v>
       </c>
       <c r="C145" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D145" s="2">
-        <v>4703352136.3585634</v>
+        <v>5937275372.1503382</v>
       </c>
       <c r="E145" s="2">
-        <v>44009.598054142531</v>
+        <v>49384.348562747778</v>
       </c>
       <c r="F145" s="2">
-        <v>43695.970795463989</v>
+        <v>48995.049465982003</v>
       </c>
       <c r="G145" s="2">
-        <v>9.3570706122411895</v>
+        <v>8.3176786433710515</v>
       </c>
       <c r="H145" s="2">
-        <v>9.2903889669835245</v>
+        <v>8.2521099991084252</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4277,25 +4274,155 @@
         <v>24</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C146" s="1">
         <v>2022</v>
       </c>
       <c r="D146" s="2">
-        <v>6317037678.5193882</v>
+        <v>5243457863.8538389</v>
       </c>
       <c r="E146" s="2">
-        <v>53156.778959477473</v>
+        <v>43476.024271344693</v>
       </c>
       <c r="F146" s="2">
-        <v>52912.889257552997</v>
+        <v>43083.641077522057</v>
       </c>
       <c r="G146" s="2">
-        <v>8.4148269591984697</v>
+        <v>8.2914796686075896</v>
       </c>
       <c r="H146" s="2">
-        <v>8.3762187199673193</v>
+        <v>8.2166467617719015</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D147" s="2">
+        <v>6081630508.0043831</v>
+      </c>
+      <c r="E147" s="2">
+        <v>50015.311318147069</v>
+      </c>
+      <c r="F147" s="2">
+        <v>49714.513382317957</v>
+      </c>
+      <c r="G147" s="2">
+        <v>8.2239970436084615</v>
+      </c>
+      <c r="H147" s="2">
+        <v>8.174536962889448</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>24</v>
+      </c>
+      <c r="B148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D148" s="2">
+        <v>5583376155.844203</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45818.276336731571</v>
+      </c>
+      <c r="F148" s="2">
+        <v>45464.919908909003</v>
+      </c>
+      <c r="G148" s="2">
+        <v>8.2061955092839121</v>
+      </c>
+      <c r="H148" s="2">
+        <v>8.1429082762622382</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D149" s="2">
+        <v>5259551402.7786427</v>
+      </c>
+      <c r="E149" s="2">
+        <v>43145.302282105673</v>
+      </c>
+      <c r="F149" s="2">
+        <v>42801.389043351039</v>
+      </c>
+      <c r="G149" s="2">
+        <v>8.203228560388597</v>
+      </c>
+      <c r="H149" s="2">
+        <v>8.1378402387585531</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D150" s="2">
+        <v>7752652534.5018024</v>
+      </c>
+      <c r="E150" s="2">
+        <v>63585.338748979317</v>
+      </c>
+      <c r="F150" s="2">
+        <v>63502.091779149952</v>
+      </c>
+      <c r="G150" s="2">
+        <v>8.2017526860650687</v>
+      </c>
+      <c r="H150" s="2">
+        <v>8.1910148167411325</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D151" s="2">
+        <v>6516631132.9079762</v>
+      </c>
+      <c r="E151" s="2">
+        <v>52592.490433042527</v>
+      </c>
+      <c r="F151" s="2">
+        <v>52272.36126616595</v>
+      </c>
+      <c r="G151" s="2">
+        <v>8.0705028964212211</v>
+      </c>
+      <c r="H151" s="2">
+        <v>8.0213779482160081</v>
       </c>
     </row>
   </sheetData>

--- a/QUARTERLY CSR TOOLS/Emissions/input.xlsx
+++ b/QUARTERLY CSR TOOLS/Emissions/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geodis-my.sharepoint.com/personal/alexander_hoglund_geodis_com/Documents/Desktop/PYTHON TOOLS/QUARTERLY CSR TOOLS/Emissions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsealho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_EE62B70EC04E90AE9D1D8755FABA282C7DB5D541" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{589CC06E-CBD3-47C5-8C85-634D76426F7B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{349A27CC-C8BF-40E6-862A-DAC93D58A162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="25">
   <si>
     <t>Leg Transport Mode</t>
   </si>
@@ -49,9 +49,6 @@
     <t>AIR</t>
   </si>
   <si>
-    <t>Jul</t>
-  </si>
-  <si>
     <t>Dec</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Apr</t>
+  </si>
+  <si>
+    <t>Jul</t>
   </si>
   <si>
     <t>Aug</t>
@@ -178,17 +178,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88EF5A36-A02D-49EC-B13B-862BD3991D57}" name="Table1" displayName="Table1" ref="A1:H151" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H151" xr:uid="{88EF5A36-A02D-49EC-B13B-862BD3991D57}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A407EE89-8325-4061-B274-1D2B83D7769D}" name="Table1" displayName="Table1" ref="A1:H156" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H156" xr:uid="{A407EE89-8325-4061-B274-1D2B83D7769D}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{41750313-C010-437C-A26A-AF697D2E08D4}" name="Leg Transport Mode"/>
-    <tableColumn id="2" xr3:uid="{111455B6-65E7-4F9C-887C-468598F663A0}" name="Service Completion Month"/>
-    <tableColumn id="3" xr3:uid="{A1126602-E3E8-41D7-9499-12EE0B07DC2F}" name="Service Completion Year" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F4C338FC-60B0-4B52-9520-2DC0FE71870E}" name="TKm" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{66C5F0FC-E59D-40A3-A7A5-88496665C3D5}" name="CO2eq (tonnes)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{FE90EA82-25DB-4A86-ABB8-50158D704F41}" name="CO2eq After Reduction" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{60D590D0-E719-4770-8BEA-622361E361AD}" name="CO2eq/TKm (g)" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5B35136D-28DC-45A6-AE22-B194D483E732}" name="CO2eq/TKm (g) After Reduction" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{052A8178-5FE7-46E4-9EC2-09FAF997DB37}" name="Leg Transport Mode"/>
+    <tableColumn id="2" xr3:uid="{829EFCB8-A1D9-43DD-A435-4DC4CCD38CCA}" name="Service Completion Month"/>
+    <tableColumn id="3" xr3:uid="{09EFD9A2-3F34-4771-BD69-D2BD5E5940D4}" name="Service Completion Year" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{FD7DE0CA-C6E3-4160-8180-BEEB32BF0FC1}" name="TKm" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{BCDC28B1-F55B-43EB-A0D2-A3B9F8BB7DFF}" name="CO2eq (tonnes)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0CF0ECAC-F0FD-453F-9255-84973D843B7E}" name="CO2eq After Reduction" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5B7388C5-CC6D-417B-ABB2-41130FD4EFB9}" name="CO2eq/TKm (g)" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{B0A9679C-E95B-4C9E-9847-F06AE994699B}" name="CO2eq/TKm (g) After Reduction" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>2022</v>
@@ -539,16 +539,16 @@
         <v>170132455.93025801</v>
       </c>
       <c r="E2" s="2">
-        <v>121752.45276745511</v>
+        <v>121752.4527674547</v>
       </c>
       <c r="F2" s="2">
-        <v>121715.023827407</v>
+        <v>121724.6239374068</v>
       </c>
       <c r="G2" s="2">
-        <v>715.63331112650712</v>
+        <v>715.63331112650485</v>
       </c>
       <c r="H2" s="2">
-        <v>715.41331230356991</v>
+        <v>715.46973957341265</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -556,25 +556,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>2022</v>
       </c>
       <c r="D3" s="2">
-        <v>169359940.2340003</v>
+        <v>169359940.23400009</v>
       </c>
       <c r="E3" s="2">
-        <v>120276.5824164943</v>
+        <v>120276.5824164949</v>
       </c>
       <c r="F3" s="2">
         <v>120276.58241637961</v>
       </c>
       <c r="G3" s="2">
-        <v>710.18318883622192</v>
+        <v>710.18318883622658</v>
       </c>
       <c r="H3" s="2">
-        <v>710.18318883554468</v>
+        <v>710.18318883554571</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>2022</v>
       </c>
       <c r="D4" s="2">
-        <v>198297923.79671359</v>
+        <v>198297923.79671389</v>
       </c>
       <c r="E4" s="2">
-        <v>140353.44025506981</v>
+        <v>140353.44025506999</v>
       </c>
       <c r="F4" s="2">
-        <v>140353.44025503419</v>
+        <v>140353.4402550346</v>
       </c>
       <c r="G4" s="2">
-        <v>707.79077041146456</v>
+        <v>707.79077041146468</v>
       </c>
       <c r="H4" s="2">
-        <v>707.79077041128517</v>
+        <v>707.79077041128619</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -608,25 +608,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>2022</v>
       </c>
       <c r="D5" s="2">
-        <v>163007693.85274181</v>
+        <v>163007693.85274169</v>
       </c>
       <c r="E5" s="2">
-        <v>114449.0597860859</v>
+        <v>114449.0597860861</v>
       </c>
       <c r="F5" s="2">
-        <v>114449.05978620661</v>
+        <v>114449.05978620741</v>
       </c>
       <c r="G5" s="2">
-        <v>702.10833047841948</v>
+        <v>702.10833047842107</v>
       </c>
       <c r="H5" s="2">
-        <v>702.1083304791598</v>
+        <v>702.10833047916515</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>2022</v>
       </c>
       <c r="D6" s="2">
-        <v>175480513.37831309</v>
+        <v>175480513.37831351</v>
       </c>
       <c r="E6" s="2">
         <v>122821.3775560745</v>
       </c>
       <c r="F6" s="2">
-        <v>122812.8976360731</v>
+        <v>122812.897636073</v>
       </c>
       <c r="G6" s="2">
-        <v>699.91462408870211</v>
+        <v>699.91462408870075</v>
       </c>
       <c r="H6" s="2">
-        <v>699.86630009056637</v>
+        <v>699.86630009056387</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -660,25 +660,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>2022</v>
       </c>
       <c r="D7" s="2">
-        <v>153467996.55617771</v>
+        <v>153467996.55617759</v>
       </c>
       <c r="E7" s="2">
-        <v>107304.1358372336</v>
+        <v>107304.1358372337</v>
       </c>
       <c r="F7" s="2">
-        <v>107304.1358370792</v>
+        <v>107304.1358370794</v>
       </c>
       <c r="G7" s="2">
-        <v>699.19552118447291</v>
+        <v>699.19552118447416</v>
       </c>
       <c r="H7" s="2">
-        <v>699.19552118346712</v>
+        <v>699.19552118346928</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -686,25 +686,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>2022</v>
       </c>
       <c r="D8" s="2">
-        <v>169407936.17192271</v>
+        <v>169407936.1719228</v>
       </c>
       <c r="E8" s="2">
-        <v>118250.4624203101</v>
+        <v>118250.4624203104</v>
       </c>
       <c r="F8" s="2">
-        <v>118250.4624205275</v>
+        <v>118250.4624205274</v>
       </c>
       <c r="G8" s="2">
-        <v>698.02197637485119</v>
+        <v>698.02197637485233</v>
       </c>
       <c r="H8" s="2">
-        <v>698.0219763761346</v>
+        <v>698.02197637613358</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -721,16 +721,16 @@
         <v>155226195.67817709</v>
       </c>
       <c r="E9" s="2">
-        <v>108332.2234294017</v>
+        <v>108332.2234294011</v>
       </c>
       <c r="F9" s="2">
-        <v>108332.2234296958</v>
+        <v>108332.2234296954</v>
       </c>
       <c r="G9" s="2">
-        <v>697.89910753209222</v>
+        <v>697.89910753208801</v>
       </c>
       <c r="H9" s="2">
-        <v>697.89910753398681</v>
+        <v>697.89910753398431</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -744,19 +744,19 @@
         <v>2022</v>
       </c>
       <c r="D10" s="2">
-        <v>161368033.27989259</v>
+        <v>161368033.27989241</v>
       </c>
       <c r="E10" s="2">
-        <v>111738.26792140611</v>
+        <v>111738.2679214058</v>
       </c>
       <c r="F10" s="2">
-        <v>111738.2679214572</v>
+        <v>111738.2679214573</v>
       </c>
       <c r="G10" s="2">
-        <v>692.44363738136576</v>
+        <v>692.44363738136497</v>
       </c>
       <c r="H10" s="2">
-        <v>692.44363738168272</v>
+        <v>692.44363738168374</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -770,19 +770,19 @@
         <v>2022</v>
       </c>
       <c r="D11" s="2">
-        <v>162612890.01383641</v>
+        <v>162612890.0138365</v>
       </c>
       <c r="E11" s="2">
-        <v>112477.9698359165</v>
+        <v>112477.9698359163</v>
       </c>
       <c r="F11" s="2">
         <v>112477.969835811</v>
       </c>
       <c r="G11" s="2">
-        <v>691.69159853407689</v>
+        <v>691.69159853407552</v>
       </c>
       <c r="H11" s="2">
-        <v>691.69159853342853</v>
+        <v>691.69159853342751</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -796,19 +796,19 @@
         <v>2022</v>
       </c>
       <c r="D12" s="2">
-        <v>158185314.8079361</v>
+        <v>158185314.80793649</v>
       </c>
       <c r="E12" s="2">
-        <v>109295.0631576523</v>
+        <v>109295.0631576521</v>
       </c>
       <c r="F12" s="2">
-        <v>109295.06315789231</v>
+        <v>109295.06315789319</v>
       </c>
       <c r="G12" s="2">
-        <v>690.93052847766023</v>
+        <v>690.93052847765671</v>
       </c>
       <c r="H12" s="2">
-        <v>690.93052847917704</v>
+        <v>690.93052847918068</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -816,25 +816,25 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
         <v>2022</v>
       </c>
       <c r="D13" s="2">
-        <v>143568702.50624889</v>
+        <v>143568702.5062488</v>
       </c>
       <c r="E13" s="2">
-        <v>99076.605114341422</v>
+        <v>99076.605114341772</v>
       </c>
       <c r="F13" s="2">
-        <v>99073.617884384745</v>
+        <v>99073.617884385079</v>
       </c>
       <c r="G13" s="2">
-        <v>690.09891003249186</v>
+        <v>690.09891003249459</v>
       </c>
       <c r="H13" s="2">
-        <v>690.07810306060651</v>
+        <v>690.07810306060912</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -842,25 +842,25 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>2024</v>
       </c>
       <c r="D14" s="2">
-        <v>137257908.71946841</v>
+        <v>160935152.46552101</v>
       </c>
       <c r="E14" s="2">
-        <v>88861.412002521305</v>
+        <v>108605.679777101</v>
       </c>
       <c r="F14" s="2">
-        <v>88753.241713538635</v>
+        <v>108574.3186283933</v>
       </c>
       <c r="G14" s="2">
-        <v>647.40467657961187</v>
+        <v>674.8412519779904</v>
       </c>
       <c r="H14" s="2">
-        <v>646.61659602387681</v>
+        <v>674.64638374549304</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -868,25 +868,25 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>2024</v>
       </c>
       <c r="D15" s="2">
-        <v>110248400.37864269</v>
+        <v>140015628.92257711</v>
       </c>
       <c r="E15" s="2">
-        <v>71254.354845603506</v>
+        <v>90435.326162947676</v>
       </c>
       <c r="F15" s="2">
-        <v>71251.40038763576</v>
+        <v>90327.155873981028</v>
       </c>
       <c r="G15" s="2">
-        <v>646.30738043258634</v>
+        <v>645.89451091174044</v>
       </c>
       <c r="H15" s="2">
-        <v>646.28058223907431</v>
+        <v>645.12195223526248</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -894,25 +894,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>2024</v>
       </c>
       <c r="D16" s="2">
-        <v>163655110.18707579</v>
+        <v>165763093.69857669</v>
       </c>
       <c r="E16" s="2">
-        <v>105338.2288403445</v>
+        <v>107031.1664072397</v>
       </c>
       <c r="F16" s="2">
-        <v>105330.7899085042</v>
+        <v>107026.60547025759</v>
       </c>
       <c r="G16" s="2">
-        <v>643.65988156392586</v>
+        <v>645.68755335771516</v>
       </c>
       <c r="H16" s="2">
-        <v>643.61442663232128</v>
+        <v>645.66003856609132</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -920,25 +920,25 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>2023</v>
       </c>
       <c r="D17" s="2">
-        <v>127928763.28317849</v>
+        <v>127924737.013198</v>
       </c>
       <c r="E17" s="2">
-        <v>82323.323199521299</v>
+        <v>82320.584171710754</v>
       </c>
       <c r="F17" s="2">
-        <v>82323.323199564926</v>
+        <v>82320.584171754701</v>
       </c>
       <c r="G17" s="2">
-        <v>643.50909902328522</v>
+        <v>643.50794141728591</v>
       </c>
       <c r="H17" s="2">
-        <v>643.50909902362616</v>
+        <v>643.50794141762947</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -946,25 +946,25 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
         <v>2024</v>
       </c>
       <c r="D18" s="2">
-        <v>163734555.937801</v>
+        <v>168039311.3585338</v>
       </c>
       <c r="E18" s="2">
-        <v>105225.30825981341</v>
+        <v>108039.91048899951</v>
       </c>
       <c r="F18" s="2">
-        <v>105176.6088809379</v>
+        <v>108032.4715571751</v>
       </c>
       <c r="G18" s="2">
-        <v>642.65791455644865</v>
+        <v>642.94425879002949</v>
       </c>
       <c r="H18" s="2">
-        <v>642.36048571745607</v>
+        <v>642.89998979270831</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -972,25 +972,25 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D19" s="2">
-        <v>124494407.92582519</v>
+        <v>167041696.83405301</v>
       </c>
       <c r="E19" s="2">
-        <v>79805.847030655248</v>
+        <v>107106.03759086839</v>
       </c>
       <c r="F19" s="2">
-        <v>79796.517970428642</v>
+        <v>107057.338211999</v>
       </c>
       <c r="G19" s="2">
-        <v>641.03961262424116</v>
+        <v>641.19342428179777</v>
       </c>
       <c r="H19" s="2">
-        <v>640.96467704776001</v>
+        <v>640.9018840269249</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -998,25 +998,25 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D20" s="2">
-        <v>164312400.59752369</v>
+        <v>124493749.3294255</v>
       </c>
       <c r="E20" s="2">
-        <v>104904.0586196019</v>
+        <v>79805.400444576488</v>
       </c>
       <c r="F20" s="2">
-        <v>104748.7621596317</v>
+        <v>79796.071384349605</v>
       </c>
       <c r="G20" s="2">
-        <v>638.44273614235601</v>
+        <v>641.03941663289277</v>
       </c>
       <c r="H20" s="2">
-        <v>637.49760686784305</v>
+        <v>640.9644806599855</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1030,19 +1030,19 @@
         <v>2023</v>
       </c>
       <c r="D21" s="2">
-        <v>150322724.72178489</v>
+        <v>150322724.72178519</v>
       </c>
       <c r="E21" s="2">
-        <v>95940.194041416908</v>
+        <v>95940.194041417068</v>
       </c>
       <c r="F21" s="2">
-        <v>95882.896361427585</v>
+        <v>95882.896361427483</v>
       </c>
       <c r="G21" s="2">
-        <v>638.22814693508008</v>
+        <v>638.22814693507996</v>
       </c>
       <c r="H21" s="2">
-        <v>637.84698247644383</v>
+        <v>637.84698247644189</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1050,25 +1050,25 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D22" s="2">
-        <v>145925031.1325478</v>
+        <v>166938534.36661789</v>
       </c>
       <c r="E22" s="2">
-        <v>92750.276029171408</v>
+        <v>106402.4461557079</v>
       </c>
       <c r="F22" s="2">
-        <v>92733.524749213131</v>
+        <v>106275.439415744</v>
       </c>
       <c r="G22" s="2">
-        <v>635.60223567760409</v>
+        <v>637.37498690407074</v>
       </c>
       <c r="H22" s="2">
-        <v>635.48744193846107</v>
+        <v>636.61418748501671</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1076,25 +1076,25 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
         <v>2023</v>
       </c>
       <c r="D23" s="2">
-        <v>139673216.36471149</v>
+        <v>145898751.41296169</v>
       </c>
       <c r="E23" s="2">
-        <v>88523.034831087076</v>
+        <v>92733.202244346321</v>
       </c>
       <c r="F23" s="2">
-        <v>88502.62532109383</v>
+        <v>92716.45096438982</v>
       </c>
       <c r="G23" s="2">
-        <v>633.78675693941057</v>
+        <v>635.59969736730648</v>
       </c>
       <c r="H23" s="2">
-        <v>633.64063364874357</v>
+        <v>635.48488295118386</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1102,25 +1102,25 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
         <v>2023</v>
       </c>
       <c r="D24" s="2">
-        <v>149350847.21497741</v>
+        <v>140283279.02006751</v>
       </c>
       <c r="E24" s="2">
-        <v>94421.57931598743</v>
+        <v>88974.714766019169</v>
       </c>
       <c r="F24" s="2">
-        <v>94380.132866008877</v>
+        <v>88954.305256025793</v>
       </c>
       <c r="G24" s="2">
-        <v>632.21321523590586</v>
+        <v>634.25032111839471</v>
       </c>
       <c r="H24" s="2">
-        <v>631.93570459066075</v>
+        <v>634.104833287372</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1128,25 +1128,25 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
         <v>2023</v>
       </c>
       <c r="D25" s="2">
-        <v>147173391.88029999</v>
+        <v>149310235.5817112</v>
       </c>
       <c r="E25" s="2">
-        <v>93019.721471926896</v>
+        <v>94392.261504500741</v>
       </c>
       <c r="F25" s="2">
-        <v>92902.333822459885</v>
+        <v>94350.815054521619</v>
       </c>
       <c r="G25" s="2">
-        <v>632.04170457376063</v>
+        <v>632.18881905014382</v>
       </c>
       <c r="H25" s="2">
-        <v>631.24408995085048</v>
+        <v>631.91123292339466</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1154,25 +1154,25 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D26" s="2">
-        <v>146978578.58478901</v>
+        <v>147154074.50761491</v>
       </c>
       <c r="E26" s="2">
-        <v>92772.002393941657</v>
+        <v>93007.012002692441</v>
       </c>
       <c r="F26" s="2">
-        <v>92664.453854288018</v>
+        <v>92889.624353226274</v>
       </c>
       <c r="G26" s="2">
-        <v>631.19403716660213</v>
+        <v>632.03830620320036</v>
       </c>
       <c r="H26" s="2">
-        <v>630.46230781740599</v>
+        <v>631.24058687494562</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1180,25 +1180,25 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D27" s="2">
-        <v>150607094.05765069</v>
+        <v>147900520.35577521</v>
       </c>
       <c r="E27" s="2">
-        <v>94703.894059197046</v>
+        <v>93292.497532776455</v>
       </c>
       <c r="F27" s="2">
-        <v>94688.998359391597</v>
+        <v>93184.948993133847</v>
       </c>
       <c r="G27" s="2">
-        <v>628.81429757183616</v>
+        <v>630.77869711587914</v>
       </c>
       <c r="H27" s="2">
-        <v>628.71539320150305</v>
+        <v>630.05152902083864</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1206,25 +1206,25 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1">
         <v>2023</v>
       </c>
       <c r="D28" s="2">
-        <v>147910404.4320561</v>
+        <v>150607094.05765131</v>
       </c>
       <c r="E28" s="2">
-        <v>92837.786534432467</v>
+        <v>94703.89405919706</v>
       </c>
       <c r="F28" s="2">
-        <v>92837.786534895364</v>
+        <v>94688.998359391509</v>
       </c>
       <c r="G28" s="2">
-        <v>627.66231280963268</v>
+        <v>628.81429757183344</v>
       </c>
       <c r="H28" s="2">
-        <v>627.66231281276237</v>
+        <v>628.71539320149986</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1238,19 +1238,19 @@
         <v>2023</v>
       </c>
       <c r="D29" s="2">
-        <v>130354274.09467889</v>
+        <v>147886389.2668494</v>
       </c>
       <c r="E29" s="2">
-        <v>81759.618239305768</v>
+        <v>92821.682304848786</v>
       </c>
       <c r="F29" s="2">
-        <v>81759.618239448813</v>
+        <v>92821.682305311173</v>
       </c>
       <c r="G29" s="2">
-        <v>627.21087441998338</v>
+        <v>627.6553424896955</v>
       </c>
       <c r="H29" s="2">
-        <v>627.21087442108069</v>
+        <v>627.65534249282211</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1258,25 +1258,25 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>2023</v>
       </c>
       <c r="D30" s="2">
-        <v>141734433.47418889</v>
+        <v>130348639.58602311</v>
       </c>
       <c r="E30" s="2">
-        <v>88857.159567695198</v>
+        <v>81755.896264574389</v>
       </c>
       <c r="F30" s="2">
-        <v>88848.956497739782</v>
+        <v>81755.896264717667</v>
       </c>
       <c r="G30" s="2">
-        <v>626.92711566012588</v>
+        <v>627.20943252054337</v>
       </c>
       <c r="H30" s="2">
-        <v>626.86923932228501</v>
+        <v>627.20943252164261</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1284,51 +1284,51 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1">
         <v>2023</v>
       </c>
       <c r="D31" s="2">
-        <v>132632795.14342409</v>
+        <v>141613511.79474789</v>
       </c>
       <c r="E31" s="2">
-        <v>82514.690796915194</v>
+        <v>88761.926973243346</v>
       </c>
       <c r="F31" s="2">
-        <v>82514.690797406729</v>
+        <v>88753.723903288672</v>
       </c>
       <c r="G31" s="2">
-        <v>622.1288687137062</v>
+        <v>626.78995703385476</v>
       </c>
       <c r="H31" s="2">
-        <v>622.12886871741227</v>
+        <v>626.73203127627187</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D32" s="2">
-        <v>121771.278932474</v>
+        <v>132631412.0909844</v>
       </c>
       <c r="E32" s="2">
-        <v>8.7570234864099987</v>
+        <v>82513.752966149186</v>
       </c>
       <c r="F32" s="2">
-        <v>8.7570234864099987</v>
+        <v>82513.752966640837</v>
       </c>
       <c r="G32" s="2">
-        <v>71.913702173285415</v>
+        <v>622.12828518741276</v>
       </c>
       <c r="H32" s="2">
-        <v>71.913702173285415</v>
+        <v>622.12828519111963</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1336,25 +1336,25 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>2022</v>
       </c>
       <c r="D33" s="2">
-        <v>367671.24317228462</v>
+        <v>121771.278932474</v>
       </c>
       <c r="E33" s="2">
-        <v>25.232048253630001</v>
+        <v>8.7570234864099987</v>
       </c>
       <c r="F33" s="2">
-        <v>25.232048253630001</v>
+        <v>8.7570234864099987</v>
       </c>
       <c r="G33" s="2">
-        <v>68.626656890342346</v>
+        <v>71.913702173285387</v>
       </c>
       <c r="H33" s="2">
-        <v>68.626656890342346</v>
+        <v>71.913702173285387</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1362,25 +1362,25 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D34" s="2">
-        <v>842426.46536226606</v>
+        <v>367671.24317228468</v>
       </c>
       <c r="E34" s="2">
-        <v>48.549191986461267</v>
+        <v>25.232048253630001</v>
       </c>
       <c r="F34" s="2">
-        <v>48.549191986461267</v>
+        <v>25.232048253630001</v>
       </c>
       <c r="G34" s="2">
-        <v>57.630183740231622</v>
+        <v>68.626656890342318</v>
       </c>
       <c r="H34" s="2">
-        <v>57.630183740231622</v>
+        <v>68.626656890342318</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1388,25 +1388,25 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1">
         <v>2023</v>
       </c>
       <c r="D35" s="2">
-        <v>2542475.678992243</v>
+        <v>842426.46536226606</v>
       </c>
       <c r="E35" s="2">
-        <v>136.12635137078149</v>
+        <v>48.549191986461267</v>
       </c>
       <c r="F35" s="2">
-        <v>136.12635137078149</v>
+        <v>48.549191986461267</v>
       </c>
       <c r="G35" s="2">
-        <v>53.540866681854638</v>
+        <v>57.630183740231629</v>
       </c>
       <c r="H35" s="2">
-        <v>53.540866681854638</v>
+        <v>57.630183740231629</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1414,25 +1414,25 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1">
         <v>2023</v>
       </c>
       <c r="D36" s="2">
-        <v>1924043.3283526539</v>
+        <v>2542475.678992243</v>
       </c>
       <c r="E36" s="2">
-        <v>99.488626934944079</v>
+        <v>136.12635137078161</v>
       </c>
       <c r="F36" s="2">
-        <v>99.488626934944079</v>
+        <v>136.12635137078161</v>
       </c>
       <c r="G36" s="2">
-        <v>51.708101095688541</v>
+        <v>53.540866681854673</v>
       </c>
       <c r="H36" s="2">
-        <v>51.708101095688541</v>
+        <v>53.540866681854673</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1446,19 +1446,19 @@
         <v>2023</v>
       </c>
       <c r="D37" s="2">
-        <v>1821786.3023248969</v>
+        <v>1924043.3283526539</v>
       </c>
       <c r="E37" s="2">
-        <v>91.835786150974968</v>
+        <v>99.488626934944065</v>
       </c>
       <c r="F37" s="2">
-        <v>91.835786150974968</v>
+        <v>99.488626934944065</v>
       </c>
       <c r="G37" s="2">
-        <v>50.409746759967128</v>
+        <v>51.708101095688527</v>
       </c>
       <c r="H37" s="2">
-        <v>50.409746759967128</v>
+        <v>51.708101095688527</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1466,25 +1466,25 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D38" s="2">
-        <v>1171031.6110209869</v>
+        <v>1821786.3023248969</v>
       </c>
       <c r="E38" s="2">
-        <v>58.967847126237992</v>
+        <v>91.835786150974968</v>
       </c>
       <c r="F38" s="2">
-        <v>58.967847126237992</v>
+        <v>91.835786150974968</v>
       </c>
       <c r="G38" s="2">
-        <v>50.355469973031482</v>
+        <v>50.409746759967142</v>
       </c>
       <c r="H38" s="2">
-        <v>50.355469973031482</v>
+        <v>50.409746759967142</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1492,25 +1492,25 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D39" s="2">
-        <v>3932563.744763487</v>
+        <v>1171031.6110209869</v>
       </c>
       <c r="E39" s="2">
-        <v>193.3702933489684</v>
+        <v>58.967847126238013</v>
       </c>
       <c r="F39" s="2">
-        <v>193.3702933489684</v>
+        <v>58.967847126238013</v>
       </c>
       <c r="G39" s="2">
-        <v>49.171559801530456</v>
+        <v>50.355469973031489</v>
       </c>
       <c r="H39" s="2">
-        <v>49.171559801530456</v>
+        <v>50.355469973031489</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1518,25 +1518,25 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D40" s="2">
-        <v>338281.5389743406</v>
+        <v>3932563.7447634879</v>
       </c>
       <c r="E40" s="2">
-        <v>16.504432646840002</v>
+        <v>193.3702933489684</v>
       </c>
       <c r="F40" s="2">
-        <v>16.504432646840002</v>
+        <v>193.3702933489684</v>
       </c>
       <c r="G40" s="2">
-        <v>48.789043282943958</v>
+        <v>49.171559801530456</v>
       </c>
       <c r="H40" s="2">
-        <v>48.789043282943958</v>
+        <v>49.171559801530456</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1544,25 +1544,25 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D41" s="2">
-        <v>4499827.6141594639</v>
+        <v>338281.5389743406</v>
       </c>
       <c r="E41" s="2">
-        <v>216.31878324228859</v>
+        <v>16.504432646840002</v>
       </c>
       <c r="F41" s="2">
-        <v>216.31878324228859</v>
+        <v>16.504432646840002</v>
       </c>
       <c r="G41" s="2">
-        <v>48.072682287118099</v>
+        <v>48.789043282943958</v>
       </c>
       <c r="H41" s="2">
-        <v>48.072682287118099</v>
+        <v>48.789043282943958</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1570,25 +1570,25 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D42" s="2">
-        <v>1047114.8301536849</v>
+        <v>4499827.6141594639</v>
       </c>
       <c r="E42" s="2">
-        <v>50.158896686665003</v>
+        <v>216.31878324228859</v>
       </c>
       <c r="F42" s="2">
-        <v>50.158896686665003</v>
+        <v>216.31878324228859</v>
       </c>
       <c r="G42" s="2">
-        <v>47.902001998484891</v>
+        <v>48.072682287118113</v>
       </c>
       <c r="H42" s="2">
-        <v>47.902001998484891</v>
+        <v>48.072682287118113</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1596,25 +1596,25 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1">
         <v>2022</v>
       </c>
       <c r="D43" s="2">
-        <v>1742523.8947639121</v>
+        <v>1047114.830153686</v>
       </c>
       <c r="E43" s="2">
-        <v>82.205529710254993</v>
+        <v>50.158896686665003</v>
       </c>
       <c r="F43" s="2">
-        <v>82.205529710254993</v>
+        <v>50.158896686665003</v>
       </c>
       <c r="G43" s="2">
-        <v>47.176127660156247</v>
+        <v>47.902001998484877</v>
       </c>
       <c r="H43" s="2">
-        <v>47.176127660156247</v>
+        <v>47.902001998484877</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1622,25 +1622,25 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D44" s="2">
-        <v>4234194.1129534468</v>
+        <v>1742523.894763913</v>
       </c>
       <c r="E44" s="2">
-        <v>194.00354565646299</v>
+        <v>82.205529710255007</v>
       </c>
       <c r="F44" s="2">
-        <v>194.00354565646299</v>
+        <v>82.205529710255007</v>
       </c>
       <c r="G44" s="2">
-        <v>45.81829280404461</v>
+        <v>47.17612766015624</v>
       </c>
       <c r="H44" s="2">
-        <v>45.81829280404461</v>
+        <v>47.17612766015624</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1648,25 +1648,25 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D45" s="2">
-        <v>1812040.42320313</v>
+        <v>4234194.1129534468</v>
       </c>
       <c r="E45" s="2">
-        <v>82.79160437214999</v>
+        <v>194.00354565646299</v>
       </c>
       <c r="F45" s="2">
-        <v>82.79160437214999</v>
+        <v>194.00354565646299</v>
       </c>
       <c r="G45" s="2">
-        <v>45.689711615704432</v>
+        <v>45.81829280404461</v>
       </c>
       <c r="H45" s="2">
-        <v>45.689711615704432</v>
+        <v>45.81829280404461</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1674,25 +1674,25 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1">
         <v>2022</v>
       </c>
       <c r="D46" s="2">
-        <v>2373038.793759197</v>
+        <v>1812040.42320313</v>
       </c>
       <c r="E46" s="2">
-        <v>107.24413766764501</v>
+        <v>82.791604372150005</v>
       </c>
       <c r="F46" s="2">
-        <v>107.24413766764501</v>
+        <v>82.791604372150005</v>
       </c>
       <c r="G46" s="2">
-        <v>45.192745247015779</v>
+        <v>45.689711615704432</v>
       </c>
       <c r="H46" s="2">
-        <v>45.192745247015779</v>
+        <v>45.689711615704432</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -1700,25 +1700,25 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C47" s="1">
         <v>2022</v>
       </c>
       <c r="D47" s="2">
-        <v>3171462.8377023851</v>
+        <v>2373038.793759197</v>
       </c>
       <c r="E47" s="2">
-        <v>138.63261177954101</v>
+        <v>107.24413766764501</v>
       </c>
       <c r="F47" s="2">
-        <v>138.63261177954101</v>
+        <v>107.24413766764501</v>
       </c>
       <c r="G47" s="2">
-        <v>43.71251339649168</v>
+        <v>45.192745247015779</v>
       </c>
       <c r="H47" s="2">
-        <v>43.71251339649168</v>
+        <v>45.192745247015779</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -1726,25 +1726,25 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D48" s="2">
-        <v>4617273.6624474674</v>
+        <v>3171462.8377023842</v>
       </c>
       <c r="E48" s="2">
-        <v>199.34035830626181</v>
+        <v>138.63261177954101</v>
       </c>
       <c r="F48" s="2">
-        <v>199.34035830626181</v>
+        <v>138.63261177954101</v>
       </c>
       <c r="G48" s="2">
-        <v>43.172740642926932</v>
+        <v>43.712513396491701</v>
       </c>
       <c r="H48" s="2">
-        <v>43.172740642926932</v>
+        <v>43.712513396491701</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1752,25 +1752,25 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D49" s="2">
-        <v>4731324.3722613053</v>
+        <v>4617273.6624474674</v>
       </c>
       <c r="E49" s="2">
-        <v>202.7068105105281</v>
+        <v>199.34035830626181</v>
       </c>
       <c r="F49" s="2">
-        <v>202.7068105105281</v>
+        <v>199.34035830626181</v>
       </c>
       <c r="G49" s="2">
-        <v>42.843566528423352</v>
+        <v>43.172740642926918</v>
       </c>
       <c r="H49" s="2">
-        <v>42.843566528423352</v>
+        <v>43.172740642926918</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1778,25 +1778,25 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D50" s="2">
-        <v>4692826.4667512216</v>
+        <v>4731324.3722613063</v>
       </c>
       <c r="E50" s="2">
-        <v>197.87862961765259</v>
+        <v>202.7068105105281</v>
       </c>
       <c r="F50" s="2">
-        <v>197.87862961765259</v>
+        <v>202.7068105105281</v>
       </c>
       <c r="G50" s="2">
-        <v>42.166193661672118</v>
+        <v>42.843566528423338</v>
       </c>
       <c r="H50" s="2">
-        <v>42.166193661672118</v>
+        <v>42.843566528423338</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1804,25 +1804,25 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D51" s="2">
-        <v>8615868.936302891</v>
+        <v>4692826.4667512216</v>
       </c>
       <c r="E51" s="2">
-        <v>362.79182878253499</v>
+        <v>197.87862961765251</v>
       </c>
       <c r="F51" s="2">
-        <v>362.79182878253499</v>
+        <v>197.87862961765251</v>
       </c>
       <c r="G51" s="2">
-        <v>42.107398738845099</v>
+        <v>42.166193661672111</v>
       </c>
       <c r="H51" s="2">
-        <v>42.107398738845099</v>
+        <v>42.166193661672111</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1830,25 +1830,25 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D52" s="2">
-        <v>4289614.1525197811</v>
+        <v>8615868.9363028929</v>
       </c>
       <c r="E52" s="2">
-        <v>174.9817151923597</v>
+        <v>362.79182878253499</v>
       </c>
       <c r="F52" s="2">
-        <v>174.9817151923597</v>
+        <v>362.79182878253499</v>
       </c>
       <c r="G52" s="2">
-        <v>40.79194747377754</v>
+        <v>42.107398738845099</v>
       </c>
       <c r="H52" s="2">
-        <v>40.79194747377754</v>
+        <v>42.107398738845099</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1856,25 +1856,25 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1">
         <v>2024</v>
       </c>
       <c r="D53" s="2">
-        <v>3450815.195322413</v>
+        <v>4307803.3548022313</v>
       </c>
       <c r="E53" s="2">
-        <v>140.352060854748</v>
+        <v>176.35483779899971</v>
       </c>
       <c r="F53" s="2">
-        <v>140.352060854748</v>
+        <v>176.35483779899971</v>
       </c>
       <c r="G53" s="2">
-        <v>40.672146409055912</v>
+        <v>40.938460573508713</v>
       </c>
       <c r="H53" s="2">
-        <v>40.672146409055912</v>
+        <v>40.938460573508713</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1882,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1">
         <v>2022</v>
@@ -1897,10 +1897,10 @@
         <v>287.07636477997698</v>
       </c>
       <c r="G54" s="2">
-        <v>40.649369813157669</v>
+        <v>40.649369813157662</v>
       </c>
       <c r="H54" s="2">
-        <v>40.649369813157669</v>
+        <v>40.649369813157662</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1908,25 +1908,25 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C55" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D55" s="2">
-        <v>4108947.5888532219</v>
+        <v>3500949.556400035</v>
       </c>
       <c r="E55" s="2">
-        <v>166.3321821026984</v>
+        <v>142.00199134999201</v>
       </c>
       <c r="F55" s="2">
-        <v>166.3321821026984</v>
+        <v>142.00199134999201</v>
       </c>
       <c r="G55" s="2">
-        <v>40.480482777128962</v>
+        <v>40.56099325692945</v>
       </c>
       <c r="H55" s="2">
-        <v>40.480482777128962</v>
+        <v>40.56099325692945</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -1934,25 +1934,25 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D56" s="2">
-        <v>3925893.2640922889</v>
+        <v>4108947.5888532219</v>
       </c>
       <c r="E56" s="2">
-        <v>157.35665807411891</v>
+        <v>166.3321821026984</v>
       </c>
       <c r="F56" s="2">
-        <v>157.35665807411891</v>
+        <v>166.3321821026984</v>
       </c>
       <c r="G56" s="2">
-        <v>40.081746366709133</v>
+        <v>40.480482777128962</v>
       </c>
       <c r="H56" s="2">
-        <v>40.081746366709133</v>
+        <v>40.480482777128962</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -1963,22 +1963,22 @@
         <v>10</v>
       </c>
       <c r="C57" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D57" s="2">
-        <v>3988884.6944208089</v>
+        <v>3963285.8577283309</v>
       </c>
       <c r="E57" s="2">
-        <v>155.45299542580659</v>
+        <v>158.77433858441901</v>
       </c>
       <c r="F57" s="2">
-        <v>155.45299542580659</v>
+        <v>158.77433858441901</v>
       </c>
       <c r="G57" s="2">
-        <v>38.971544011597089</v>
+        <v>40.061288608494387</v>
       </c>
       <c r="H57" s="2">
-        <v>38.971544011597089</v>
+        <v>40.061288608494387</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -1986,25 +1986,25 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D58" s="2">
-        <v>4736616.0595012363</v>
+        <v>3988884.694420808</v>
       </c>
       <c r="E58" s="2">
-        <v>172.6478930658659</v>
+        <v>155.45299542580659</v>
       </c>
       <c r="F58" s="2">
-        <v>172.6478930658659</v>
+        <v>155.45299542580659</v>
       </c>
       <c r="G58" s="2">
-        <v>36.449627940510261</v>
+        <v>38.971544011597089</v>
       </c>
       <c r="H58" s="2">
-        <v>36.449627940510261</v>
+        <v>38.971544011597089</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2012,25 +2012,25 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C59" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D59" s="2">
-        <v>3370422.241290343</v>
+        <v>4892505.7557469094</v>
       </c>
       <c r="E59" s="2">
-        <v>121.1971370285443</v>
+        <v>178.4931725823615</v>
       </c>
       <c r="F59" s="2">
-        <v>121.1971370285443</v>
+        <v>178.4931725823615</v>
       </c>
       <c r="G59" s="2">
-        <v>35.959036687980323</v>
+        <v>36.482976514171114</v>
       </c>
       <c r="H59" s="2">
-        <v>35.959036687980323</v>
+        <v>36.482976514171114</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2038,25 +2038,25 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D60" s="2">
-        <v>3520498.9108876758</v>
+        <v>3370422.241290343</v>
       </c>
       <c r="E60" s="2">
-        <v>121.3185658135456</v>
+        <v>121.1971370285443</v>
       </c>
       <c r="F60" s="2">
-        <v>121.3185658135456</v>
+        <v>121.1971370285443</v>
       </c>
       <c r="G60" s="2">
-        <v>34.460617339874617</v>
+        <v>35.959036687980323</v>
       </c>
       <c r="H60" s="2">
-        <v>34.460617339874617</v>
+        <v>35.959036687980323</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2064,77 +2064,77 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1">
         <v>2024</v>
       </c>
       <c r="D61" s="2">
-        <v>6942121.6210295185</v>
+        <v>6987745.3940720949</v>
       </c>
       <c r="E61" s="2">
-        <v>238.76026569381389</v>
+        <v>240.5848825171139</v>
       </c>
       <c r="F61" s="2">
-        <v>238.76026569381389</v>
+        <v>240.5848825171139</v>
       </c>
       <c r="G61" s="2">
-        <v>34.392982250634446</v>
+        <v>34.429543286051747</v>
       </c>
       <c r="H61" s="2">
-        <v>34.392982250634446</v>
+        <v>34.429543286051747</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C62" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D62" s="2">
-        <v>43611665.764662437</v>
+        <v>3520982.59300033</v>
       </c>
       <c r="E62" s="2">
-        <v>1752.4361317051971</v>
+        <v>120.68049871316791</v>
       </c>
       <c r="F62" s="2">
-        <v>1752.4361317051971</v>
+        <v>120.68049871316791</v>
       </c>
       <c r="G62" s="2">
-        <v>40.182737828949357</v>
+        <v>34.274664962297507</v>
       </c>
       <c r="H62" s="2">
-        <v>40.182737828949357</v>
+        <v>34.274664962297507</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C63" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D63" s="2">
-        <v>42438434.143424973</v>
+        <v>5524509.9845415112</v>
       </c>
       <c r="E63" s="2">
-        <v>1490.3376621408231</v>
+        <v>174.90971222857709</v>
       </c>
       <c r="F63" s="2">
-        <v>1490.3376621408231</v>
+        <v>174.90971222857709</v>
       </c>
       <c r="G63" s="2">
-        <v>35.11764022923365</v>
+        <v>31.66067447031562</v>
       </c>
       <c r="H63" s="2">
-        <v>35.11764022923365</v>
+        <v>31.66067447031562</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2142,25 +2142,25 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1">
         <v>2023</v>
       </c>
       <c r="D64" s="2">
-        <v>40681682.71564918</v>
+        <v>43611665.764662459</v>
       </c>
       <c r="E64" s="2">
-        <v>1407.3986402472931</v>
+        <v>1752.4361317051971</v>
       </c>
       <c r="F64" s="2">
-        <v>1407.3986402472931</v>
+        <v>1752.4361317051971</v>
       </c>
       <c r="G64" s="2">
-        <v>34.595389037482057</v>
+        <v>40.182737828949342</v>
       </c>
       <c r="H64" s="2">
-        <v>34.595389037482057</v>
+        <v>40.182737828949342</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2168,25 +2168,25 @@
         <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C65" s="1">
         <v>2023</v>
       </c>
       <c r="D65" s="2">
-        <v>41337485.194846638</v>
+        <v>42438434.143424973</v>
       </c>
       <c r="E65" s="2">
-        <v>1401.2182064522019</v>
+        <v>1490.337662140824</v>
       </c>
       <c r="F65" s="2">
-        <v>1401.2182064522019</v>
+        <v>1490.337662140824</v>
       </c>
       <c r="G65" s="2">
-        <v>33.897035580357112</v>
+        <v>35.11764022923365</v>
       </c>
       <c r="H65" s="2">
-        <v>33.897035580357112</v>
+        <v>35.11764022923365</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2194,25 +2194,25 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C66" s="1">
         <v>2023</v>
       </c>
       <c r="D66" s="2">
-        <v>48614223.671441212</v>
+        <v>40681682.71564918</v>
       </c>
       <c r="E66" s="2">
-        <v>1640.269017574655</v>
+        <v>1407.3986402472931</v>
       </c>
       <c r="F66" s="2">
-        <v>1640.269017574655</v>
+        <v>1407.3986402472931</v>
       </c>
       <c r="G66" s="2">
-        <v>33.740516534016848</v>
+        <v>34.59538903748205</v>
       </c>
       <c r="H66" s="2">
-        <v>33.740516534016848</v>
+        <v>34.59538903748205</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2220,25 +2220,25 @@
         <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C67" s="1">
         <v>2023</v>
       </c>
       <c r="D67" s="2">
-        <v>39066938.962529063</v>
+        <v>41337674.634050772</v>
       </c>
       <c r="E67" s="2">
-        <v>1302.283874404761</v>
+        <v>1401.2235899974039</v>
       </c>
       <c r="F67" s="2">
-        <v>1302.283874404761</v>
+        <v>1401.2235899974039</v>
       </c>
       <c r="G67" s="2">
-        <v>33.334679117138997</v>
+        <v>33.897010472939961</v>
       </c>
       <c r="H67" s="2">
-        <v>33.334679117138997</v>
+        <v>33.897010472939961</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2246,25 +2246,25 @@
         <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C68" s="1">
         <v>2023</v>
       </c>
       <c r="D68" s="2">
-        <v>38442756.770874858</v>
+        <v>48614223.67144122</v>
       </c>
       <c r="E68" s="2">
-        <v>1222.9956584378231</v>
+        <v>1640.2690175746559</v>
       </c>
       <c r="F68" s="2">
-        <v>1222.9956584378231</v>
+        <v>1640.2690175746559</v>
       </c>
       <c r="G68" s="2">
-        <v>31.813422375691669</v>
+        <v>33.740516534016848</v>
       </c>
       <c r="H68" s="2">
-        <v>31.813422375691669</v>
+        <v>33.740516534016848</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2272,25 +2272,25 @@
         <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C69" s="1">
         <v>2023</v>
       </c>
       <c r="D69" s="2">
-        <v>45979877.120768219</v>
+        <v>39066938.962529071</v>
       </c>
       <c r="E69" s="2">
-        <v>1410.261262265223</v>
+        <v>1302.2838744047619</v>
       </c>
       <c r="F69" s="2">
-        <v>1410.261262265223</v>
+        <v>1302.2838744047619</v>
       </c>
       <c r="G69" s="2">
-        <v>30.671270794419659</v>
+        <v>33.334679117138997</v>
       </c>
       <c r="H69" s="2">
-        <v>30.671270794419659</v>
+        <v>33.334679117138997</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2298,25 +2298,25 @@
         <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C70" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D70" s="2">
-        <v>168636661.5560675</v>
+        <v>38442756.770874843</v>
       </c>
       <c r="E70" s="2">
-        <v>4795.8013073616676</v>
+        <v>1222.9956584378219</v>
       </c>
       <c r="F70" s="2">
-        <v>4795.8013073616676</v>
+        <v>1222.9956584378219</v>
       </c>
       <c r="G70" s="2">
-        <v>28.438663711136051</v>
+        <v>31.813422375691669</v>
       </c>
       <c r="H70" s="2">
-        <v>28.438663711136051</v>
+        <v>31.813422375691669</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2324,25 +2324,25 @@
         <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D71" s="2">
-        <v>223760357.72891039</v>
+        <v>45979877.120768219</v>
       </c>
       <c r="E71" s="2">
-        <v>6306.8480533145448</v>
+        <v>1410.261262265223</v>
       </c>
       <c r="F71" s="2">
-        <v>6306.8480533145448</v>
+        <v>1410.261262265223</v>
       </c>
       <c r="G71" s="2">
-        <v>28.18572564562756</v>
+        <v>30.671270794419669</v>
       </c>
       <c r="H71" s="2">
-        <v>28.18572564562756</v>
+        <v>30.671270794419669</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2350,25 +2350,25 @@
         <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" s="1">
         <v>2022</v>
       </c>
       <c r="D72" s="2">
-        <v>185257466.97268209</v>
+        <v>168636661.55606741</v>
       </c>
       <c r="E72" s="2">
-        <v>5206.1671022737664</v>
+        <v>4795.8013073616657</v>
       </c>
       <c r="F72" s="2">
-        <v>5206.1671022737664</v>
+        <v>4795.8013073616657</v>
       </c>
       <c r="G72" s="2">
-        <v>28.102333403065821</v>
+        <v>28.438663711136051</v>
       </c>
       <c r="H72" s="2">
-        <v>28.102333403065821</v>
+        <v>28.438663711136051</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2376,25 +2376,25 @@
         <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C73" s="1">
         <v>2022</v>
       </c>
       <c r="D73" s="2">
-        <v>149009323.2514379</v>
+        <v>223760357.72891039</v>
       </c>
       <c r="E73" s="2">
-        <v>4161.1908144989293</v>
+        <v>6306.8480533145448</v>
       </c>
       <c r="F73" s="2">
-        <v>4161.1908144989293</v>
+        <v>6306.8480533145448</v>
       </c>
       <c r="G73" s="2">
-        <v>27.925707759086649</v>
+        <v>28.18572564562756</v>
       </c>
       <c r="H73" s="2">
-        <v>27.925707759086649</v>
+        <v>28.18572564562756</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2402,25 +2402,25 @@
         <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C74" s="1">
         <v>2022</v>
       </c>
       <c r="D74" s="2">
-        <v>48401407.842929773</v>
+        <v>185257466.972682</v>
       </c>
       <c r="E74" s="2">
-        <v>1351.2138101527789</v>
+        <v>5206.1671022737664</v>
       </c>
       <c r="F74" s="2">
-        <v>1351.2138101527789</v>
+        <v>5206.1671022737664</v>
       </c>
       <c r="G74" s="2">
-        <v>27.916828670308139</v>
+        <v>28.102333403065821</v>
       </c>
       <c r="H74" s="2">
-        <v>27.916828670308139</v>
+        <v>28.102333403065821</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2428,25 +2428,25 @@
         <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C75" s="1">
         <v>2022</v>
       </c>
       <c r="D75" s="2">
-        <v>128786084.266791</v>
+        <v>149009323.25143781</v>
       </c>
       <c r="E75" s="2">
-        <v>3583.0584919783778</v>
+        <v>4161.1908144989302</v>
       </c>
       <c r="F75" s="2">
-        <v>3583.0584919783778</v>
+        <v>4161.1908144989302</v>
       </c>
       <c r="G75" s="2">
-        <v>27.821783016212979</v>
+        <v>27.925707759086659</v>
       </c>
       <c r="H75" s="2">
-        <v>27.821783016212979</v>
+        <v>27.925707759086659</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2454,25 +2454,25 @@
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1">
         <v>2022</v>
       </c>
       <c r="D76" s="2">
-        <v>55347970.649452791</v>
+        <v>48402487.89368961</v>
       </c>
       <c r="E76" s="2">
-        <v>1530.4742033065879</v>
+        <v>1351.2921429479791</v>
       </c>
       <c r="F76" s="2">
-        <v>1530.4742033065879</v>
+        <v>1351.2921429479791</v>
       </c>
       <c r="G76" s="2">
-        <v>27.651857608291909</v>
+        <v>27.91782409854498</v>
       </c>
       <c r="H76" s="2">
-        <v>27.651857608291909</v>
+        <v>27.91782409854498</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2480,25 +2480,25 @@
         <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C77" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D77" s="2">
-        <v>47074278.932267003</v>
+        <v>128786084.266791</v>
       </c>
       <c r="E77" s="2">
-        <v>1285.0084597141699</v>
+        <v>3583.0584919783778</v>
       </c>
       <c r="F77" s="2">
-        <v>1285.0084597141699</v>
+        <v>3583.0584919783778</v>
       </c>
       <c r="G77" s="2">
-        <v>27.297464536060321</v>
+        <v>27.821783016212979</v>
       </c>
       <c r="H77" s="2">
-        <v>27.297464536060321</v>
+        <v>27.821783016212979</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2506,25 +2506,25 @@
         <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C78" s="1">
         <v>2022</v>
       </c>
       <c r="D78" s="2">
-        <v>67726228.628502816</v>
+        <v>55347970.649452791</v>
       </c>
       <c r="E78" s="2">
-        <v>1844.136440333436</v>
+        <v>1530.4742033065891</v>
       </c>
       <c r="F78" s="2">
-        <v>1844.136440333436</v>
+        <v>1530.4742033065891</v>
       </c>
       <c r="G78" s="2">
-        <v>27.229279965506962</v>
+        <v>27.65185760829192</v>
       </c>
       <c r="H78" s="2">
-        <v>27.229279965506962</v>
+        <v>27.65185760829192</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2532,25 +2532,25 @@
         <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C79" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D79" s="2">
-        <v>103428323.8722976</v>
+        <v>47074278.932266973</v>
       </c>
       <c r="E79" s="2">
-        <v>2800.3180071816</v>
+        <v>1285.0084597141699</v>
       </c>
       <c r="F79" s="2">
-        <v>2800.3180071816</v>
+        <v>1285.0084597141699</v>
       </c>
       <c r="G79" s="2">
-        <v>27.074962663410631</v>
+        <v>27.297464536060328</v>
       </c>
       <c r="H79" s="2">
-        <v>27.074962663410631</v>
+        <v>27.297464536060328</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2558,25 +2558,25 @@
         <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" s="1">
         <v>2022</v>
       </c>
       <c r="D80" s="2">
-        <v>68716209.818704262</v>
+        <v>67726228.628502786</v>
       </c>
       <c r="E80" s="2">
-        <v>1788.836419755055</v>
+        <v>1844.136440333436</v>
       </c>
       <c r="F80" s="2">
-        <v>1788.836419755055</v>
+        <v>1844.136440333436</v>
       </c>
       <c r="G80" s="2">
-        <v>26.03223350756085</v>
+        <v>27.229279965506979</v>
       </c>
       <c r="H80" s="2">
-        <v>26.03223350756085</v>
+        <v>27.229279965506979</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2584,25 +2584,25 @@
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C81" s="1">
         <v>2022</v>
       </c>
       <c r="D81" s="2">
-        <v>48928742.131406792</v>
+        <v>103428323.8722976</v>
       </c>
       <c r="E81" s="2">
-        <v>1241.940306064623</v>
+        <v>2800.3180071816</v>
       </c>
       <c r="F81" s="2">
-        <v>1241.940306064623</v>
+        <v>2800.3180071816</v>
       </c>
       <c r="G81" s="2">
-        <v>25.382633028439031</v>
+        <v>27.074962663410631</v>
       </c>
       <c r="H81" s="2">
-        <v>25.382633028439031</v>
+        <v>27.074962663410631</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2610,25 +2610,25 @@
         <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C82" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D82" s="2">
-        <v>48513309.139894351</v>
+        <v>68716209.818704247</v>
       </c>
       <c r="E82" s="2">
-        <v>1228.8575548974979</v>
+        <v>1788.836419755055</v>
       </c>
       <c r="F82" s="2">
-        <v>1228.8575548974979</v>
+        <v>1788.836419755055</v>
       </c>
       <c r="G82" s="2">
-        <v>25.330318147416619</v>
+        <v>26.032233507560861</v>
       </c>
       <c r="H82" s="2">
-        <v>25.330318147416619</v>
+        <v>26.032233507560861</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2636,25 +2636,25 @@
         <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1">
         <v>2022</v>
       </c>
       <c r="D83" s="2">
-        <v>56003796.084564403</v>
+        <v>48928742.131406806</v>
       </c>
       <c r="E83" s="2">
-        <v>1390.8012438399819</v>
+        <v>1241.9403060646221</v>
       </c>
       <c r="F83" s="2">
-        <v>1390.8012438399819</v>
+        <v>1241.9403060646221</v>
       </c>
       <c r="G83" s="2">
-        <v>24.8340530656155</v>
+        <v>25.38263302843902</v>
       </c>
       <c r="H83" s="2">
-        <v>24.8340530656155</v>
+        <v>25.38263302843902</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2662,25 +2662,25 @@
         <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C84" s="1">
         <v>2023</v>
       </c>
       <c r="D84" s="2">
-        <v>53332911.848596454</v>
+        <v>48513309.139894374</v>
       </c>
       <c r="E84" s="2">
-        <v>1309.625408931113</v>
+        <v>1228.8575548974979</v>
       </c>
       <c r="F84" s="2">
-        <v>1309.625408931113</v>
+        <v>1228.8575548974979</v>
       </c>
       <c r="G84" s="2">
-        <v>24.555670476964181</v>
+        <v>25.330318147416609</v>
       </c>
       <c r="H84" s="2">
-        <v>24.555670476964181</v>
+        <v>25.330318147416609</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -2688,25 +2688,25 @@
         <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C85" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D85" s="2">
-        <v>52299241.626828253</v>
+        <v>56003796.08456441</v>
       </c>
       <c r="E85" s="2">
-        <v>1273.7515698983841</v>
+        <v>1390.8012438399819</v>
       </c>
       <c r="F85" s="2">
-        <v>1273.7515698983841</v>
+        <v>1390.8012438399819</v>
       </c>
       <c r="G85" s="2">
-        <v>24.35506768887792</v>
+        <v>24.834053065615489</v>
       </c>
       <c r="H85" s="2">
-        <v>24.35506768887792</v>
+        <v>24.834053065615489</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -2714,25 +2714,25 @@
         <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C86" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D86" s="2">
-        <v>57482433.243782528</v>
+        <v>53332911.848596439</v>
       </c>
       <c r="E86" s="2">
-        <v>1294.0352830001821</v>
+        <v>1309.625408931113</v>
       </c>
       <c r="F86" s="2">
-        <v>1294.0352830001821</v>
+        <v>1309.625408931113</v>
       </c>
       <c r="G86" s="2">
-        <v>22.511839008487851</v>
+        <v>24.555670476964181</v>
       </c>
       <c r="H86" s="2">
-        <v>22.511839008487851</v>
+        <v>24.555670476964181</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -2746,19 +2746,19 @@
         <v>2024</v>
       </c>
       <c r="D87" s="2">
-        <v>74773413.135558724</v>
+        <v>62276150.871769346</v>
       </c>
       <c r="E87" s="2">
-        <v>1674.212669331295</v>
+        <v>1425.9498100946901</v>
       </c>
       <c r="F87" s="2">
-        <v>1674.212669331295</v>
+        <v>1425.9498100946901</v>
       </c>
       <c r="G87" s="2">
-        <v>22.390480775514021</v>
+        <v>22.897205272541861</v>
       </c>
       <c r="H87" s="2">
-        <v>22.390480775514021</v>
+        <v>22.897205272541861</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2766,25 +2766,25 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C88" s="1">
         <v>2024</v>
       </c>
       <c r="D88" s="2">
-        <v>97140307.106537104</v>
+        <v>57579370.34115012</v>
       </c>
       <c r="E88" s="2">
-        <v>2141.7317886063661</v>
+        <v>1295.055895389919</v>
       </c>
       <c r="F88" s="2">
-        <v>2141.7317886063661</v>
+        <v>1295.055895389919</v>
       </c>
       <c r="G88" s="2">
-        <v>22.04781776381925</v>
+        <v>22.491664770157879</v>
       </c>
       <c r="H88" s="2">
-        <v>22.04781776381925</v>
+        <v>22.491664770157879</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -2792,25 +2792,25 @@
         <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C89" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D89" s="2">
-        <v>54253065.949148603</v>
+        <v>75028021.216239884</v>
       </c>
       <c r="E89" s="2">
-        <v>1177.9143793870271</v>
+        <v>1677.075080049761</v>
       </c>
       <c r="F89" s="2">
-        <v>1177.9143793870271</v>
+        <v>1677.075080049761</v>
       </c>
       <c r="G89" s="2">
-        <v>21.711480425660849</v>
+        <v>22.352649754899261</v>
       </c>
       <c r="H89" s="2">
-        <v>21.711480425660849</v>
+        <v>22.352649754899261</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -2818,25 +2818,25 @@
         <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C90" s="1">
         <v>2024</v>
       </c>
       <c r="D90" s="2">
-        <v>81284601.508632198</v>
+        <v>56161874.551526293</v>
       </c>
       <c r="E90" s="2">
-        <v>1758.746553074996</v>
+        <v>1253.5949909752269</v>
       </c>
       <c r="F90" s="2">
-        <v>1758.746553074996</v>
+        <v>1253.5949909752269</v>
       </c>
       <c r="G90" s="2">
-        <v>21.636897031330371</v>
+        <v>22.321103079013209</v>
       </c>
       <c r="H90" s="2">
-        <v>21.636897031330371</v>
+        <v>22.321103079013209</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -2850,97 +2850,97 @@
         <v>2024</v>
       </c>
       <c r="D91" s="2">
-        <v>69337197.350763932</v>
+        <v>97337024.186998919</v>
       </c>
       <c r="E91" s="2">
-        <v>1475.8275225779821</v>
+        <v>2142.180614352189</v>
       </c>
       <c r="F91" s="2">
-        <v>1475.8275225779821</v>
+        <v>2142.180614352189</v>
       </c>
       <c r="G91" s="2">
-        <v>21.284787660395999</v>
+        <v>22.00787040948304</v>
       </c>
       <c r="H91" s="2">
-        <v>21.284787660395999</v>
+        <v>22.00787040948304</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C92" s="1">
         <v>2023</v>
       </c>
       <c r="D92" s="2">
-        <v>160590209.00989291</v>
+        <v>54253065.949148603</v>
       </c>
       <c r="E92" s="2">
-        <v>22558.851099588679</v>
+        <v>1177.9143793870271</v>
       </c>
       <c r="F92" s="2">
-        <v>22558.851099588679</v>
+        <v>1177.9143793870271</v>
       </c>
       <c r="G92" s="2">
-        <v>140.47463564979219</v>
+        <v>21.711480425660859</v>
       </c>
       <c r="H92" s="2">
-        <v>140.47463564979219</v>
+        <v>21.711480425660859</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D93" s="2">
-        <v>160909633.02613831</v>
+        <v>81287573.133111551</v>
       </c>
       <c r="E93" s="2">
-        <v>22446.072083634139</v>
+        <v>1758.866502562096</v>
       </c>
       <c r="F93" s="2">
-        <v>22446.072083634139</v>
+        <v>1758.866502562096</v>
       </c>
       <c r="G93" s="2">
-        <v>139.49489326091481</v>
+        <v>21.63758167170133</v>
       </c>
       <c r="H93" s="2">
-        <v>139.49489326091481</v>
+        <v>21.63758167170133</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C94" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D94" s="2">
-        <v>163372504.89344209</v>
+        <v>70936067.494783595</v>
       </c>
       <c r="E94" s="2">
-        <v>22676.12489494458</v>
+        <v>1510.6986572066519</v>
       </c>
       <c r="F94" s="2">
-        <v>22676.12489494458</v>
+        <v>1510.6986572066519</v>
       </c>
       <c r="G94" s="2">
-        <v>138.80012986110989</v>
+        <v>21.29662258649655</v>
       </c>
       <c r="H94" s="2">
-        <v>138.80012986110989</v>
+        <v>21.29662258649655</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -2948,25 +2948,25 @@
         <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C95" s="1">
         <v>2023</v>
       </c>
       <c r="D95" s="2">
-        <v>153851306.53345901</v>
+        <v>160590209.00989279</v>
       </c>
       <c r="E95" s="2">
-        <v>21071.637182947248</v>
+        <v>22558.851099588701</v>
       </c>
       <c r="F95" s="2">
-        <v>21071.637182947248</v>
+        <v>22558.851099588701</v>
       </c>
       <c r="G95" s="2">
-        <v>136.9610545254919</v>
+        <v>140.47463564979239</v>
       </c>
       <c r="H95" s="2">
-        <v>136.9610545254919</v>
+        <v>140.47463564979239</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -2980,19 +2980,19 @@
         <v>2023</v>
       </c>
       <c r="D96" s="2">
-        <v>175267246.6559684</v>
+        <v>160910418.09338039</v>
       </c>
       <c r="E96" s="2">
-        <v>24000.35411383009</v>
+        <v>22446.153137968649</v>
       </c>
       <c r="F96" s="2">
-        <v>24000.35411383009</v>
+        <v>22446.153137968649</v>
       </c>
       <c r="G96" s="2">
-        <v>136.93576279508929</v>
+        <v>139.49471640141141</v>
       </c>
       <c r="H96" s="2">
-        <v>136.93576279508929</v>
+        <v>139.49471640141141</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3000,25 +3000,25 @@
         <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C97" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D97" s="2">
-        <v>269266653.3094573</v>
+        <v>163372437.04366931</v>
       </c>
       <c r="E97" s="2">
-        <v>36573.730814321287</v>
+        <v>22676.120400119671</v>
       </c>
       <c r="F97" s="2">
-        <v>36573.730814321287</v>
+        <v>22676.120400119671</v>
       </c>
       <c r="G97" s="2">
-        <v>135.82718232951251</v>
+        <v>138.80015999307369</v>
       </c>
       <c r="H97" s="2">
-        <v>135.82718232951251</v>
+        <v>138.80015999307369</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3026,25 +3026,25 @@
         <v>23</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C98" s="1">
         <v>2023</v>
       </c>
       <c r="D98" s="2">
-        <v>182010671.44436109</v>
+        <v>153856398.56667641</v>
       </c>
       <c r="E98" s="2">
-        <v>24645.75106403129</v>
+        <v>21072.343781735221</v>
       </c>
       <c r="F98" s="2">
-        <v>24645.75106403129</v>
+        <v>21072.343781735221</v>
       </c>
       <c r="G98" s="2">
-        <v>135.40827506680159</v>
+        <v>136.96111424708249</v>
       </c>
       <c r="H98" s="2">
-        <v>135.40827506680159</v>
+        <v>136.96111424708249</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3052,25 +3052,25 @@
         <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C99" s="1">
         <v>2023</v>
       </c>
       <c r="D99" s="2">
-        <v>161706255.0922327</v>
+        <v>175267246.65596861</v>
       </c>
       <c r="E99" s="2">
-        <v>21882.742127258269</v>
+        <v>24000.354113830141</v>
       </c>
       <c r="F99" s="2">
-        <v>21882.742127258269</v>
+        <v>24000.354113830141</v>
       </c>
       <c r="G99" s="2">
-        <v>135.32403007401891</v>
+        <v>136.9357627950894</v>
       </c>
       <c r="H99" s="2">
-        <v>135.32403007401891</v>
+        <v>136.9357627950894</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3078,25 +3078,25 @@
         <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C100" s="1">
         <v>2022</v>
       </c>
       <c r="D100" s="2">
-        <v>232355821.2340942</v>
+        <v>269268098.86142677</v>
       </c>
       <c r="E100" s="2">
-        <v>31354.29042405757</v>
+        <v>36574.424590756244</v>
       </c>
       <c r="F100" s="2">
-        <v>31354.29042405757</v>
+        <v>36574.424590756244</v>
       </c>
       <c r="G100" s="2">
-        <v>134.94084313243309</v>
+        <v>135.82902967491339</v>
       </c>
       <c r="H100" s="2">
-        <v>134.94084313243309</v>
+        <v>135.82902967491339</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3104,25 +3104,25 @@
         <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C101" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D101" s="2">
-        <v>280053790.41567057</v>
+        <v>182003494.24048021</v>
       </c>
       <c r="E101" s="2">
-        <v>37069.776743680268</v>
+        <v>24644.961912984851</v>
       </c>
       <c r="F101" s="2">
-        <v>37069.776743680268</v>
+        <v>24644.961912984851</v>
       </c>
       <c r="G101" s="2">
-        <v>132.36663102705859</v>
+        <v>135.40927890330281</v>
       </c>
       <c r="H101" s="2">
-        <v>132.36663102705859</v>
+        <v>135.40927890330281</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3130,25 +3130,25 @@
         <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C102" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D102" s="2">
-        <v>270167742.2003091</v>
+        <v>161706494.9661983</v>
       </c>
       <c r="E102" s="2">
-        <v>35678.384610248148</v>
+        <v>21882.786744073019</v>
       </c>
       <c r="F102" s="2">
-        <v>35678.384610248148</v>
+        <v>21882.786744073019</v>
       </c>
       <c r="G102" s="2">
-        <v>132.060120574259</v>
+        <v>135.32410524788881</v>
       </c>
       <c r="H102" s="2">
-        <v>132.060120574259</v>
+        <v>135.32410524788881</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3156,25 +3156,25 @@
         <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C103" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D103" s="2">
-        <v>162370732.47807959</v>
+        <v>232355821.2340948</v>
       </c>
       <c r="E103" s="2">
-        <v>21422.58314299105</v>
+        <v>31354.290424057519</v>
       </c>
       <c r="F103" s="2">
-        <v>21422.58314299105</v>
+        <v>31354.290424057519</v>
       </c>
       <c r="G103" s="2">
-        <v>131.93623515791651</v>
+        <v>134.94084313243249</v>
       </c>
       <c r="H103" s="2">
-        <v>131.93623515791651</v>
+        <v>134.94084313243249</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3182,25 +3182,25 @@
         <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C104" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D104" s="2">
-        <v>143348393.30678779</v>
+        <v>280053790.41566968</v>
       </c>
       <c r="E104" s="2">
-        <v>18893.295569210819</v>
+        <v>37069.776743680239</v>
       </c>
       <c r="F104" s="2">
-        <v>18893.295569210819</v>
+        <v>37069.776743680239</v>
       </c>
       <c r="G104" s="2">
-        <v>131.79984186342591</v>
+        <v>132.3666310270589</v>
       </c>
       <c r="H104" s="2">
-        <v>131.79984186342591</v>
+        <v>132.3666310270589</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3208,25 +3208,25 @@
         <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C105" s="1">
         <v>2022</v>
       </c>
       <c r="D105" s="2">
-        <v>245964027.14310911</v>
+        <v>270167742.20030898</v>
       </c>
       <c r="E105" s="2">
-        <v>32369.268328221518</v>
+        <v>35678.384610248148</v>
       </c>
       <c r="F105" s="2">
-        <v>32369.268328221518</v>
+        <v>35678.384610248148</v>
       </c>
       <c r="G105" s="2">
-        <v>131.60163583347139</v>
+        <v>132.06012057425909</v>
       </c>
       <c r="H105" s="2">
-        <v>131.60163583347139</v>
+        <v>132.06012057425909</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3234,25 +3234,25 @@
         <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C106" s="1">
         <v>2023</v>
       </c>
       <c r="D106" s="2">
-        <v>157489264.16825891</v>
+        <v>162370731.64160809</v>
       </c>
       <c r="E106" s="2">
-        <v>20533.72380327696</v>
+        <v>21422.582911417321</v>
       </c>
       <c r="F106" s="2">
-        <v>20533.72380327696</v>
+        <v>21422.582911417321</v>
       </c>
       <c r="G106" s="2">
-        <v>130.38173688677011</v>
+        <v>131.93623441139749</v>
       </c>
       <c r="H106" s="2">
-        <v>130.38173688677011</v>
+        <v>131.93623441139749</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3260,25 +3260,25 @@
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C107" s="1">
         <v>2022</v>
       </c>
       <c r="D107" s="2">
-        <v>210861191.77884451</v>
+        <v>245964027.14310929</v>
       </c>
       <c r="E107" s="2">
-        <v>27428.986025753438</v>
+        <v>32369.2683282213</v>
       </c>
       <c r="F107" s="2">
-        <v>27428.986025753438</v>
+        <v>32369.2683282213</v>
       </c>
       <c r="G107" s="2">
-        <v>130.0807692224443</v>
+        <v>131.6016358334704</v>
       </c>
       <c r="H107" s="2">
-        <v>130.0807692224443</v>
+        <v>131.6016358334704</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3286,25 +3286,25 @@
         <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C108" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D108" s="2">
-        <v>214401644.02473399</v>
+        <v>157497228.67444041</v>
       </c>
       <c r="E108" s="2">
-        <v>27863.73315263445</v>
+        <v>20533.714338684971</v>
       </c>
       <c r="F108" s="2">
-        <v>27863.73315263445</v>
+        <v>20533.714338684971</v>
       </c>
       <c r="G108" s="2">
-        <v>129.96044540320781</v>
+        <v>130.37508349515051</v>
       </c>
       <c r="H108" s="2">
-        <v>129.96044540320781</v>
+        <v>130.37508349515051</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3315,22 +3315,22 @@
         <v>19</v>
       </c>
       <c r="C109" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D109" s="2">
-        <v>151307519.65304431</v>
+        <v>210861191.7788443</v>
       </c>
       <c r="E109" s="2">
-        <v>19629.72073822299</v>
+        <v>27428.986025753471</v>
       </c>
       <c r="F109" s="2">
-        <v>19629.72073822299</v>
+        <v>27428.986025753471</v>
       </c>
       <c r="G109" s="2">
-        <v>129.73394040980199</v>
+        <v>130.08076922244459</v>
       </c>
       <c r="H109" s="2">
-        <v>129.73394040980199</v>
+        <v>130.08076922244459</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -3338,25 +3338,25 @@
         <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C110" s="1">
         <v>2022</v>
       </c>
       <c r="D110" s="2">
-        <v>273619763.7058838</v>
+        <v>214400995.7538287</v>
       </c>
       <c r="E110" s="2">
-        <v>35323.8358160852</v>
+        <v>27863.668068041359</v>
       </c>
       <c r="F110" s="2">
-        <v>35323.8358160852</v>
+        <v>27863.668068041359</v>
       </c>
       <c r="G110" s="2">
-        <v>129.0982615351393</v>
+        <v>129.96053479170359</v>
       </c>
       <c r="H110" s="2">
-        <v>129.0982615351393</v>
+        <v>129.96053479170359</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3364,25 +3364,25 @@
         <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C111" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D111" s="2">
-        <v>243210266.25725091</v>
+        <v>151305121.7891759</v>
       </c>
       <c r="E111" s="2">
-        <v>31226.017049679289</v>
+        <v>19629.644450116801</v>
       </c>
       <c r="F111" s="2">
-        <v>31226.017049679289</v>
+        <v>19629.644450116801</v>
       </c>
       <c r="G111" s="2">
-        <v>128.39103188452819</v>
+        <v>129.73549221597511</v>
       </c>
       <c r="H111" s="2">
-        <v>128.39103188452819</v>
+        <v>129.73549221597511</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3390,25 +3390,25 @@
         <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D112" s="2">
-        <v>164546081.45223609</v>
+        <v>273619763.70588392</v>
       </c>
       <c r="E112" s="2">
-        <v>20936.845123946281</v>
+        <v>35323.835816085208</v>
       </c>
       <c r="F112" s="2">
-        <v>20936.845123946281</v>
+        <v>35323.835816085208</v>
       </c>
       <c r="G112" s="2">
-        <v>127.24001045277851</v>
+        <v>129.0982615351393</v>
       </c>
       <c r="H112" s="2">
-        <v>127.24001045277851</v>
+        <v>129.0982615351393</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3416,25 +3416,25 @@
         <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C113" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D113" s="2">
-        <v>231296730.69428301</v>
+        <v>161423300.06805971</v>
       </c>
       <c r="E113" s="2">
-        <v>29283.21595007756</v>
+        <v>20766.606190775379</v>
       </c>
       <c r="F113" s="2">
-        <v>29283.21595007756</v>
+        <v>20766.606190775379</v>
       </c>
       <c r="G113" s="2">
-        <v>126.6045389495052</v>
+        <v>128.64689411020399</v>
       </c>
       <c r="H113" s="2">
-        <v>126.6045389495052</v>
+        <v>128.64689411020399</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3442,25 +3442,25 @@
         <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C114" s="1">
         <v>2022</v>
       </c>
       <c r="D114" s="2">
-        <v>263804218.86335471</v>
+        <v>243210266.25725079</v>
       </c>
       <c r="E114" s="2">
-        <v>33368.528173760809</v>
+        <v>31226.017049679409</v>
       </c>
       <c r="F114" s="2">
-        <v>33368.528173760809</v>
+        <v>31226.017049679409</v>
       </c>
       <c r="G114" s="2">
-        <v>126.4897442411451</v>
+        <v>128.3910318845287</v>
       </c>
       <c r="H114" s="2">
-        <v>126.4897442411451</v>
+        <v>128.3910318845287</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3468,25 +3468,25 @@
         <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C115" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D115" s="2">
-        <v>317445237.5593344</v>
+        <v>164520492.9797802</v>
       </c>
       <c r="E115" s="2">
-        <v>39722.347307316959</v>
+        <v>20935.169856186661</v>
       </c>
       <c r="F115" s="2">
-        <v>39722.347307316959</v>
+        <v>20935.169856186661</v>
       </c>
       <c r="G115" s="2">
-        <v>125.13133796783571</v>
+        <v>127.2496178257843</v>
       </c>
       <c r="H115" s="2">
-        <v>125.13133796783571</v>
+        <v>127.2496178257843</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -3494,25 +3494,25 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C116" s="1">
         <v>2024</v>
       </c>
       <c r="D116" s="2">
-        <v>157560463.88376009</v>
+        <v>180387782.13459161</v>
       </c>
       <c r="E116" s="2">
-        <v>18921.00394163535</v>
+        <v>22932.952768139461</v>
       </c>
       <c r="F116" s="2">
-        <v>18921.00394163535</v>
+        <v>22932.952768139461</v>
       </c>
       <c r="G116" s="2">
-        <v>120.08725714081601</v>
+        <v>127.1314082182608</v>
       </c>
       <c r="H116" s="2">
-        <v>120.08725714081601</v>
+        <v>127.1314082182608</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3520,25 +3520,25 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C117" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D117" s="2">
-        <v>190056835.90889871</v>
+        <v>231296730.69428289</v>
       </c>
       <c r="E117" s="2">
-        <v>22609.670964118479</v>
+        <v>29283.21595007744</v>
       </c>
       <c r="F117" s="2">
-        <v>22609.670964118479</v>
+        <v>29283.21595007744</v>
       </c>
       <c r="G117" s="2">
-        <v>118.9626821681707</v>
+        <v>126.6045389495047</v>
       </c>
       <c r="H117" s="2">
-        <v>118.9626821681707</v>
+        <v>126.6045389495047</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -3546,25 +3546,25 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D118" s="2">
-        <v>196848695.08482891</v>
+        <v>263804218.86335549</v>
       </c>
       <c r="E118" s="2">
-        <v>23063.592267379379</v>
+        <v>33368.528173760751</v>
       </c>
       <c r="F118" s="2">
-        <v>23063.592267379379</v>
+        <v>33368.528173760751</v>
       </c>
       <c r="G118" s="2">
-        <v>117.1640597233346</v>
+        <v>126.48974424114451</v>
       </c>
       <c r="H118" s="2">
-        <v>117.1640597233346</v>
+        <v>126.48974424114451</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3572,25 +3572,25 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D119" s="2">
-        <v>201682569.52063331</v>
+        <v>317445237.55933452</v>
       </c>
       <c r="E119" s="2">
-        <v>23263.447272663689</v>
+        <v>39722.347307317003</v>
       </c>
       <c r="F119" s="2">
-        <v>23263.447272663689</v>
+        <v>39722.347307317003</v>
       </c>
       <c r="G119" s="2">
-        <v>115.3468409687417</v>
+        <v>125.1313379678358</v>
       </c>
       <c r="H119" s="2">
-        <v>115.3468409687417</v>
+        <v>125.1313379678358</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -3598,25 +3598,25 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C120" s="1">
         <v>2024</v>
       </c>
       <c r="D120" s="2">
-        <v>184952834.92620081</v>
+        <v>157478948.16933101</v>
       </c>
       <c r="E120" s="2">
-        <v>20537.216137899431</v>
+        <v>18912.23238368817</v>
       </c>
       <c r="F120" s="2">
-        <v>20537.216137899431</v>
+        <v>18912.23238368817</v>
       </c>
       <c r="G120" s="2">
-        <v>111.04028843945061</v>
+        <v>120.0937179447794</v>
       </c>
       <c r="H120" s="2">
-        <v>111.04028843945061</v>
+        <v>120.0937179447794</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -3624,129 +3624,129 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C121" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D121" s="2">
-        <v>199997127.23210889</v>
+        <v>189243426.32941741</v>
       </c>
       <c r="E121" s="2">
-        <v>20869.189539172199</v>
+        <v>22390.175023014701</v>
       </c>
       <c r="F121" s="2">
-        <v>20869.189539172199</v>
+        <v>22390.175023014701</v>
       </c>
       <c r="G121" s="2">
-        <v>104.34744652583051</v>
+        <v>118.3141494386176</v>
       </c>
       <c r="H121" s="2">
-        <v>104.34744652583051</v>
+        <v>118.3141494386176</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C122" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D122" s="2">
-        <v>9026797741.4573517</v>
+        <v>199031856.98263401</v>
       </c>
       <c r="E122" s="2">
-        <v>89298.533560824319</v>
+        <v>23262.04898028338</v>
       </c>
       <c r="F122" s="2">
-        <v>89097.484261025049</v>
+        <v>23262.04898028338</v>
       </c>
       <c r="G122" s="2">
-        <v>9.8926037913426565</v>
+        <v>116.8760083583657</v>
       </c>
       <c r="H122" s="2">
-        <v>9.8703312972026893</v>
+        <v>116.8760083583657</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C123" s="1">
         <v>2024</v>
       </c>
       <c r="D123" s="2">
-        <v>4622506626.7522221</v>
+        <v>202203328.65026689</v>
       </c>
       <c r="E123" s="2">
-        <v>44885.960959717093</v>
+        <v>23315.976320960479</v>
       </c>
       <c r="F123" s="2">
-        <v>44640.812355083988</v>
+        <v>23315.976320960479</v>
       </c>
       <c r="G123" s="2">
-        <v>9.710307541787996</v>
+        <v>115.3095573480299</v>
       </c>
       <c r="H123" s="2">
-        <v>9.6572738472088844</v>
+        <v>115.3095573480299</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C124" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D124" s="2">
-        <v>3918595729.0120282</v>
+        <v>185209833.9322823</v>
       </c>
       <c r="E124" s="2">
-        <v>37535.409685442799</v>
+        <v>20589.509464202099</v>
       </c>
       <c r="F124" s="2">
-        <v>37236.935715415981</v>
+        <v>20589.509464202099</v>
       </c>
       <c r="G124" s="2">
-        <v>9.5787910468902542</v>
+        <v>111.1685542125705</v>
       </c>
       <c r="H124" s="2">
-        <v>9.5026224419440961</v>
+        <v>111.1685542125705</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C125" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D125" s="2">
-        <v>4367505470.0914354</v>
+        <v>199983803.15059721</v>
       </c>
       <c r="E125" s="2">
-        <v>41691.939357995223</v>
+        <v>20867.276793175381</v>
       </c>
       <c r="F125" s="2">
-        <v>41358.068730057967</v>
+        <v>20867.276793175381</v>
       </c>
       <c r="G125" s="2">
-        <v>9.5459386699113598</v>
+        <v>104.3448342537087</v>
       </c>
       <c r="H125" s="2">
-        <v>9.4694944318391734</v>
+        <v>104.3448342537087</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -3754,25 +3754,25 @@
         <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D126" s="2">
-        <v>4272884522.1227102</v>
+        <v>9026797741.457346</v>
       </c>
       <c r="E126" s="2">
-        <v>40570.50854484726</v>
+        <v>89298.533560824202</v>
       </c>
       <c r="F126" s="2">
-        <v>40291.184027888958</v>
+        <v>89097.484261025049</v>
       </c>
       <c r="G126" s="2">
-        <v>9.4948759637183908</v>
+        <v>9.8926037913426494</v>
       </c>
       <c r="H126" s="2">
-        <v>9.4295045464680278</v>
+        <v>9.8703312972026964</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -3780,25 +3780,25 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C127" s="1">
         <v>2024</v>
       </c>
       <c r="D127" s="2">
-        <v>4787395439.5673265</v>
+        <v>4457630835.2327709</v>
       </c>
       <c r="E127" s="2">
-        <v>45120.947414682902</v>
+        <v>43079.033365066673</v>
       </c>
       <c r="F127" s="2">
-        <v>44836.185064923979</v>
+        <v>42816.748467398917</v>
       </c>
       <c r="G127" s="2">
-        <v>9.424946818005246</v>
+        <v>9.6641096935558934</v>
       </c>
       <c r="H127" s="2">
-        <v>9.3654651325348155</v>
+        <v>9.6052701648101131</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -3806,25 +3806,25 @@
         <v>24</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C128" s="1">
         <v>2024</v>
       </c>
       <c r="D128" s="2">
-        <v>4103440281.285821</v>
+        <v>4894912898.8306417</v>
       </c>
       <c r="E128" s="2">
-        <v>38671.647170901633</v>
+        <v>46935.232477192338</v>
       </c>
       <c r="F128" s="2">
-        <v>38390.167951032992</v>
+        <v>46573.719008515953</v>
       </c>
       <c r="G128" s="2">
-        <v>9.4242012847775118</v>
+        <v>9.5885735757228332</v>
       </c>
       <c r="H128" s="2">
-        <v>9.3556053748644672</v>
+        <v>9.5147186418050609</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -3832,25 +3832,25 @@
         <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C129" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D129" s="2">
-        <v>4664451690.6759968</v>
+        <v>4359861651.1781654</v>
       </c>
       <c r="E129" s="2">
-        <v>43938.794486265921</v>
+        <v>41800.279973279787</v>
       </c>
       <c r="F129" s="2">
-        <v>43581.950558309982</v>
+        <v>41466.056542348902</v>
       </c>
       <c r="G129" s="2">
-        <v>9.4199270139505042</v>
+        <v>9.5875244027489028</v>
       </c>
       <c r="H129" s="2">
-        <v>9.3434241468141046</v>
+        <v>9.510865220033649</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3858,25 +3858,25 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C130" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D130" s="2">
-        <v>4904520342.7497168</v>
+        <v>3913179436.8667359</v>
       </c>
       <c r="E130" s="2">
-        <v>46068.233035217643</v>
+        <v>37498.2295978275</v>
       </c>
       <c r="F130" s="2">
-        <v>45787.248804449009</v>
+        <v>37199.634319798963</v>
       </c>
       <c r="G130" s="2">
-        <v>9.3930149771566658</v>
+        <v>9.5825479518138685</v>
       </c>
       <c r="H130" s="2">
-        <v>9.3357241085024061</v>
+        <v>9.5062429208675692</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -3884,25 +3884,25 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C131" s="1">
         <v>2023</v>
       </c>
       <c r="D131" s="2">
-        <v>4638168497.7237005</v>
+        <v>4272900073.30792</v>
       </c>
       <c r="E131" s="2">
-        <v>43551.511054423427</v>
+        <v>40575.026431969323</v>
       </c>
       <c r="F131" s="2">
-        <v>43079.099238372022</v>
+        <v>40295.701915010977</v>
       </c>
       <c r="G131" s="2">
-        <v>9.3898078682991883</v>
+        <v>9.4958987422698211</v>
       </c>
       <c r="H131" s="2">
-        <v>9.2879547734227828</v>
+        <v>9.4305275629381953</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -3910,25 +3910,25 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C132" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D132" s="2">
-        <v>4378216142.9437628</v>
+        <v>3986660291.5153131</v>
       </c>
       <c r="E132" s="2">
-        <v>41098.4920912698</v>
+        <v>37685.97080939739</v>
       </c>
       <c r="F132" s="2">
-        <v>40667.841477189009</v>
+        <v>37404.579998537069</v>
       </c>
       <c r="G132" s="2">
-        <v>9.3870404633875797</v>
+        <v>9.4530178278804673</v>
       </c>
       <c r="H132" s="2">
-        <v>9.2886783451137127</v>
+        <v>9.3824347356969682</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -3936,25 +3936,25 @@
         <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C133" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D133" s="2">
-        <v>4081748890.7551389</v>
+        <v>4800652661.7734394</v>
       </c>
       <c r="E133" s="2">
-        <v>38275.852770580314</v>
+        <v>45275.994842694847</v>
       </c>
       <c r="F133" s="2">
-        <v>38026.76713048797</v>
+        <v>44985.228314954991</v>
       </c>
       <c r="G133" s="2">
-        <v>9.3773168793583288</v>
+        <v>9.4312165517030273</v>
       </c>
       <c r="H133" s="2">
-        <v>9.316292635398467</v>
+        <v>9.3706484272779527</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -3968,19 +3968,19 @@
         <v>2023</v>
       </c>
       <c r="D134" s="2">
-        <v>4271421559.5064378</v>
+        <v>4664230394.7990818</v>
       </c>
       <c r="E134" s="2">
-        <v>40045.769245034673</v>
+        <v>43936.03149607782</v>
       </c>
       <c r="F134" s="2">
-        <v>39725.105329832957</v>
+        <v>43576.976400120999</v>
       </c>
       <c r="G134" s="2">
-        <v>9.3752790931883467</v>
+        <v>9.4197815667659412</v>
       </c>
       <c r="H134" s="2">
-        <v>9.3002071503387711</v>
+        <v>9.3428010007207511</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -3991,22 +3991,22 @@
         <v>12</v>
       </c>
       <c r="C135" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D135" s="2">
-        <v>4571284525.3672123</v>
+        <v>4901576228.3756161</v>
       </c>
       <c r="E135" s="2">
-        <v>42822.762750481248</v>
+        <v>46088.470275014202</v>
       </c>
       <c r="F135" s="2">
-        <v>42453.925698448948</v>
+        <v>45794.12987928294</v>
       </c>
       <c r="G135" s="2">
-        <v>9.3677745309544669</v>
+        <v>9.4027855790968555</v>
       </c>
       <c r="H135" s="2">
-        <v>9.2870888834115224</v>
+        <v>9.3427354274686323</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -4014,25 +4014,25 @@
         <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C136" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D136" s="2">
-        <v>4709814872.5466242</v>
+        <v>4638389793.6006126</v>
       </c>
       <c r="E136" s="2">
-        <v>44043.49149685257</v>
+        <v>43554.27404461152</v>
       </c>
       <c r="F136" s="2">
-        <v>43728.707192178983</v>
+        <v>43081.867490559998</v>
       </c>
       <c r="G136" s="2">
-        <v>9.3514273254307341</v>
+        <v>9.3899555627475468</v>
       </c>
       <c r="H136" s="2">
-        <v>9.2845915127306498</v>
+        <v>9.2881084616903475</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -4040,25 +4040,25 @@
         <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C137" s="1">
         <v>2023</v>
       </c>
       <c r="D137" s="2">
-        <v>4434404302.4607487</v>
+        <v>4378216142.9437637</v>
       </c>
       <c r="E137" s="2">
-        <v>40917.291389132493</v>
+        <v>41098.492091269749</v>
       </c>
       <c r="F137" s="2">
-        <v>40552.456349022963</v>
+        <v>40668.204066188933</v>
       </c>
       <c r="G137" s="2">
-        <v>9.2272351816063729</v>
+        <v>9.3870404633875673</v>
       </c>
       <c r="H137" s="2">
-        <v>9.1449614385678615</v>
+        <v>9.2887611617193979</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -4066,25 +4066,25 @@
         <v>24</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C138" s="1">
         <v>2023</v>
       </c>
       <c r="D138" s="2">
-        <v>4389534042.7002668</v>
+        <v>4271421994.851696</v>
       </c>
       <c r="E138" s="2">
-        <v>40139.96030088835</v>
+        <v>40045.837977289673</v>
       </c>
       <c r="F138" s="2">
-        <v>39843.302336969988</v>
+        <v>39725.174062088023</v>
       </c>
       <c r="G138" s="2">
-        <v>9.1444695292067593</v>
+        <v>9.3752942288438206</v>
       </c>
       <c r="H138" s="2">
-        <v>9.0768865099084568</v>
+        <v>9.3002222936456267</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -4092,25 +4092,25 @@
         <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C139" s="1">
         <v>2023</v>
       </c>
       <c r="D139" s="2">
-        <v>4655496669.0294399</v>
+        <v>4083202759.4521389</v>
       </c>
       <c r="E139" s="2">
-        <v>41907.316289993403</v>
+        <v>38267.594080421622</v>
       </c>
       <c r="F139" s="2">
-        <v>41557.991351142948</v>
+        <v>38018.537772325959</v>
       </c>
       <c r="G139" s="2">
-        <v>9.0016853773692134</v>
+        <v>9.3719553827780384</v>
       </c>
       <c r="H139" s="2">
-        <v>8.9266504318661237</v>
+        <v>9.3109600507389612</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -4118,25 +4118,25 @@
         <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C140" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D140" s="2">
-        <v>6762816762.2306423</v>
+        <v>4571303998.92873</v>
       </c>
       <c r="E140" s="2">
-        <v>60789.842728239157</v>
+        <v>42822.929743255598</v>
       </c>
       <c r="F140" s="2">
-        <v>60756.213578431983</v>
+        <v>42454.090216223973</v>
       </c>
       <c r="G140" s="2">
-        <v>8.9888348103325324</v>
+        <v>9.3677711552963903</v>
       </c>
       <c r="H140" s="2">
-        <v>8.9838621560392813</v>
+        <v>9.2870853100500312</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -4147,22 +4147,22 @@
         <v>15</v>
       </c>
       <c r="C141" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D141" s="2">
-        <v>4985220676.3838406</v>
+        <v>4587100811.140605</v>
       </c>
       <c r="E141" s="2">
-        <v>42676.56259804056</v>
+        <v>42807.528302456943</v>
       </c>
       <c r="F141" s="2">
-        <v>42278.71102919602</v>
+        <v>42492.110463790021</v>
       </c>
       <c r="G141" s="2">
-        <v>8.5606165440598136</v>
+        <v>9.3321533720146519</v>
       </c>
       <c r="H141" s="2">
-        <v>8.4808103339296874</v>
+        <v>9.2633914564489714</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4170,25 +4170,25 @@
         <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C142" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D142" s="2">
-        <v>5626782854.0181885</v>
+        <v>4434408170.6433477</v>
       </c>
       <c r="E142" s="2">
-        <v>47751.86128900724</v>
+        <v>40917.330101137093</v>
       </c>
       <c r="F142" s="2">
-        <v>47425.993150191927</v>
+        <v>40552.495061027963</v>
       </c>
       <c r="G142" s="2">
-        <v>8.4865299635486675</v>
+        <v>9.2272358625031039</v>
       </c>
       <c r="H142" s="2">
-        <v>8.4286162058527214</v>
+        <v>9.1449621912329651</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -4196,25 +4196,25 @@
         <v>24</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C143" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D143" s="2">
-        <v>6317037678.5193911</v>
+        <v>4389524690.8985605</v>
       </c>
       <c r="E143" s="2">
-        <v>53156.778959477451</v>
+        <v>40140.58996373741</v>
       </c>
       <c r="F143" s="2">
-        <v>52912.889257553034</v>
+        <v>39843.931999817942</v>
       </c>
       <c r="G143" s="2">
-        <v>8.4148269591984644</v>
+        <v>9.1446324580350868</v>
       </c>
       <c r="H143" s="2">
-        <v>8.3762187199673228</v>
+        <v>9.0770492947521522</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -4222,25 +4222,25 @@
         <v>24</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C144" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D144" s="2">
-        <v>7007627857.1000977</v>
+        <v>4655526109.3587017</v>
       </c>
       <c r="E144" s="2">
-        <v>58580.64294661249</v>
+        <v>41907.497962999238</v>
       </c>
       <c r="F144" s="2">
-        <v>58329.457133697957</v>
+        <v>41554.887097147897</v>
       </c>
       <c r="G144" s="2">
-        <v>8.3595539234091678</v>
+        <v>9.0016674761538393</v>
       </c>
       <c r="H144" s="2">
-        <v>8.323709295521283</v>
+        <v>8.9259271929788593</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4248,25 +4248,25 @@
         <v>24</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C145" s="1">
         <v>2022</v>
       </c>
       <c r="D145" s="2">
-        <v>5937275372.1503382</v>
+        <v>6762789838.6596622</v>
       </c>
       <c r="E145" s="2">
-        <v>49384.348562747778</v>
+        <v>60789.284457202077</v>
       </c>
       <c r="F145" s="2">
-        <v>48995.049465982003</v>
+        <v>60755.655307394984</v>
       </c>
       <c r="G145" s="2">
-        <v>8.3176786433710515</v>
+        <v>8.9887880456817673</v>
       </c>
       <c r="H145" s="2">
-        <v>8.2521099991084252</v>
+        <v>8.9838153715917226</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4274,25 +4274,25 @@
         <v>24</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C146" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D146" s="2">
-        <v>5243457863.8538389</v>
+        <v>4985220676.3838358</v>
       </c>
       <c r="E146" s="2">
-        <v>43476.024271344693</v>
+        <v>42676.562598040517</v>
       </c>
       <c r="F146" s="2">
-        <v>43083.641077522057</v>
+        <v>42278.81821919603</v>
       </c>
       <c r="G146" s="2">
-        <v>8.2914796686075896</v>
+        <v>8.5606165440598154</v>
       </c>
       <c r="H146" s="2">
-        <v>8.2166467617719015</v>
+        <v>8.4808318354853878</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -4300,25 +4300,25 @@
         <v>24</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C147" s="1">
         <v>2022</v>
       </c>
       <c r="D147" s="2">
-        <v>6081630508.0043831</v>
+        <v>5626782854.0181942</v>
       </c>
       <c r="E147" s="2">
-        <v>50015.311318147069</v>
+        <v>47751.861289007349</v>
       </c>
       <c r="F147" s="2">
-        <v>49714.513382317957</v>
+        <v>47427.907121192002</v>
       </c>
       <c r="G147" s="2">
-        <v>8.2239970436084615</v>
+        <v>8.4865299635486764</v>
       </c>
       <c r="H147" s="2">
-        <v>8.174536962889448</v>
+        <v>8.4289563595515009</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -4326,25 +4326,25 @@
         <v>24</v>
       </c>
       <c r="B148" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C148" s="1">
         <v>2022</v>
       </c>
       <c r="D148" s="2">
-        <v>5583376155.844203</v>
+        <v>6317037678.5193872</v>
       </c>
       <c r="E148" s="2">
-        <v>45818.276336731571</v>
+        <v>53156.778959477488</v>
       </c>
       <c r="F148" s="2">
-        <v>45464.919908909003</v>
+        <v>52912.889257553019</v>
       </c>
       <c r="G148" s="2">
-        <v>8.2061955092839121</v>
+        <v>8.414826959198475</v>
       </c>
       <c r="H148" s="2">
-        <v>8.1429082762622382</v>
+        <v>8.3762187199673246</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4352,25 +4352,25 @@
         <v>24</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C149" s="1">
         <v>2022</v>
       </c>
       <c r="D149" s="2">
-        <v>5259551402.7786427</v>
+        <v>7007627857.1000957</v>
       </c>
       <c r="E149" s="2">
-        <v>43145.302282105673</v>
+        <v>58580.642946612497</v>
       </c>
       <c r="F149" s="2">
-        <v>42801.389043351039</v>
+        <v>58329.457133698008</v>
       </c>
       <c r="G149" s="2">
-        <v>8.203228560388597</v>
+        <v>8.3595539234091714</v>
       </c>
       <c r="H149" s="2">
-        <v>8.1378402387585531</v>
+        <v>8.3237092955212919</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -4378,25 +4378,25 @@
         <v>24</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C150" s="1">
         <v>2022</v>
       </c>
       <c r="D150" s="2">
-        <v>7752652534.5018024</v>
+        <v>5935965297.7523212</v>
       </c>
       <c r="E150" s="2">
-        <v>63585.338748979317</v>
+        <v>49379.855460497769</v>
       </c>
       <c r="F150" s="2">
-        <v>63502.091779149952</v>
+        <v>48990.571363731979</v>
       </c>
       <c r="G150" s="2">
-        <v>8.2017526860650687</v>
+        <v>8.3187574359970853</v>
       </c>
       <c r="H150" s="2">
-        <v>8.1910148167411325</v>
+        <v>8.2531768476278771</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -4410,19 +4410,149 @@
         <v>2022</v>
       </c>
       <c r="D151" s="2">
-        <v>6516631132.9079762</v>
+        <v>5243335248.3136463</v>
       </c>
       <c r="E151" s="2">
-        <v>52592.490433042527</v>
+        <v>43474.350545941699</v>
       </c>
       <c r="F151" s="2">
-        <v>52272.36126616595</v>
+        <v>43080.657784119001</v>
       </c>
       <c r="G151" s="2">
-        <v>8.0705028964212211</v>
+        <v>8.2913543550212339</v>
       </c>
       <c r="H151" s="2">
-        <v>8.0213779482160081</v>
+        <v>8.2162699396294645</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D152" s="2">
+        <v>6081630508.004384</v>
+      </c>
+      <c r="E152" s="2">
+        <v>50015.311318147113</v>
+      </c>
+      <c r="F152" s="2">
+        <v>49714.513382317949</v>
+      </c>
+      <c r="G152" s="2">
+        <v>8.2239970436084668</v>
+      </c>
+      <c r="H152" s="2">
+        <v>8.1745369628894444</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D153" s="2">
+        <v>5583394382.4046297</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45819.591318121573</v>
+      </c>
+      <c r="F153" s="2">
+        <v>45466.234890298998</v>
+      </c>
+      <c r="G153" s="2">
+        <v>8.2064042372712009</v>
+      </c>
+      <c r="H153" s="2">
+        <v>8.1431172108458174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D154" s="2">
+        <v>5259551402.7786427</v>
+      </c>
+      <c r="E154" s="2">
+        <v>43145.302282105637</v>
+      </c>
+      <c r="F154" s="2">
+        <v>42801.40772135101</v>
+      </c>
+      <c r="G154" s="2">
+        <v>8.2032285603885899</v>
+      </c>
+      <c r="H154" s="2">
+        <v>8.1378437900119867</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D155" s="2">
+        <v>7752652534.5017967</v>
+      </c>
+      <c r="E155" s="2">
+        <v>63585.338748979368</v>
+      </c>
+      <c r="F155" s="2">
+        <v>63502.091779149989</v>
+      </c>
+      <c r="G155" s="2">
+        <v>8.2017526860650811</v>
+      </c>
+      <c r="H155" s="2">
+        <v>8.1910148167411432</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D156" s="2">
+        <v>6516631132.90798</v>
+      </c>
+      <c r="E156" s="2">
+        <v>52592.490433042512</v>
+      </c>
+      <c r="F156" s="2">
+        <v>52272.365804165936</v>
+      </c>
+      <c r="G156" s="2">
+        <v>8.0705028964212158</v>
+      </c>
+      <c r="H156" s="2">
+        <v>8.0213786445880881</v>
       </c>
     </row>
   </sheetData>
